--- a/mpath/src/data/tokyo_zulehner.xlsx
+++ b/mpath/src/data/tokyo_zulehner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SuhasVittal/Documents/programming/quantum_computing/mpath/src/data/sabre_initial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SuhasVittal/Documents/programming/quantum_computing/mpath/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122C2F8-EA02-3D42-95B8-CCFD9BB7A9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C558CD4-B1E8-6D48-8B32-1BF62E9779BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28420" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="260" windowWidth="28420" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tokyo_zulehner" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/mpath/src/data/tokyo_zulehner.xlsx
+++ b/mpath/src/data/tokyo_zulehner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SuhasVittal/Documents/programming/quantum_computing/mpath/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5ACECF-FBE3-1840-950D-8240DB1CA1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B82A40A-8263-1047-ACD2-841D6D99F2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp1" sheetId="1" r:id="rId1"/>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,56 +1388,56 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2.657071E-3</v>
+        <v>5.3261710000001E-3</v>
       </c>
       <c r="F2">
-        <v>30.37890625</v>
+        <v>30.392578125</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>8</v>
       </c>
       <c r="I2">
-        <v>2.4428140000000002E-3</v>
+        <v>4.4139899999999701E-3</v>
       </c>
       <c r="J2">
-        <v>94.125</v>
+        <v>38.158203125</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>8</v>
       </c>
       <c r="M2">
-        <v>2.6588860000000001E-3</v>
+        <v>4.42667100000004E-3</v>
       </c>
       <c r="N2">
-        <v>81.2490234375</v>
+        <v>27.306640625</v>
       </c>
       <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
         <v>8</v>
       </c>
-      <c r="P2">
-        <v>7</v>
-      </c>
       <c r="Q2">
-        <v>1.1337490000000001E-3</v>
+        <v>2.0604539999999798E-3</v>
       </c>
       <c r="R2">
-        <v>3.8740234375</v>
+        <v>3.869140625</v>
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C2,$G2)), ($C2:$G2),0,1)))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C2,$G2)), ($C2:$G2),0,1)))</f>
@@ -1452,60 +1452,60 @@
         <v>99</v>
       </c>
       <c r="C3">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="E3">
-        <v>6.1633328000000001E-2</v>
+        <v>3.5569376000000201E-2</v>
       </c>
       <c r="F3">
-        <v>353.2099609375</v>
+        <v>323.970703125</v>
       </c>
       <c r="G3">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="I3">
-        <v>2.2193808829999999</v>
+        <v>3.6220306999999702E-2</v>
       </c>
       <c r="J3">
-        <v>11106.8759765625</v>
+        <v>4633.3720703125</v>
       </c>
       <c r="K3">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="L3">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="M3">
-        <v>0.16969019099999999</v>
+        <v>3.4952598999999897E-2</v>
       </c>
       <c r="N3">
-        <v>773.11328125</v>
+        <v>687.8857421875</v>
       </c>
       <c r="O3">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="P3">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="Q3">
-        <v>7.2062100000000002E-3</v>
+        <v>3.84331599999976E-3</v>
       </c>
       <c r="R3">
-        <v>6.5556640625</v>
+        <v>6.57421875</v>
       </c>
       <c r="S3" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C3,$G3)), ($C3:$G3),0,1)))</f>
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="T3" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C3,$G3)), ($C3:$G3),0,1)))</f>
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1516,60 +1516,60 @@
         <v>98</v>
       </c>
       <c r="C4">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4">
-        <v>7.4430439000000001E-2</v>
+        <v>6.6444521999999395E-2</v>
       </c>
       <c r="F4">
-        <v>347.3310546875</v>
+        <v>371.70703125</v>
       </c>
       <c r="G4">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="H4">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I4">
-        <v>14.74508909</v>
+        <v>6.356643848</v>
       </c>
       <c r="J4">
-        <v>2930.85546875</v>
+        <v>300.6533203125</v>
       </c>
       <c r="K4">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L4">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="M4">
-        <v>0.75148538200000004</v>
+        <v>0.52945649499999803</v>
       </c>
       <c r="N4">
-        <v>345.41796875</v>
+        <v>1036.2490234375</v>
       </c>
       <c r="O4">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="P4">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="Q4">
-        <v>6.0350910000000002E-3</v>
+        <v>6.9429680000006001E-3</v>
       </c>
       <c r="R4">
-        <v>6.732421875</v>
+        <v>6.8134765625</v>
       </c>
       <c r="S4" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C4,$G4)), ($C4:$G4),0,1)))</f>
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="T4" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C4,$G4)), ($C4:$G4),0,1)))</f>
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1580,60 +1580,60 @@
         <v>448</v>
       </c>
       <c r="C5">
-        <v>856</v>
+        <v>420</v>
       </c>
       <c r="D5">
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="E5">
-        <v>0.35497329</v>
+        <v>0.29081821800000501</v>
       </c>
       <c r="F5">
-        <v>1727.2275390625</v>
+        <v>1654.0791015625</v>
       </c>
       <c r="G5">
-        <v>766</v>
+        <v>297</v>
       </c>
       <c r="H5">
-        <v>883</v>
+        <v>821</v>
       </c>
       <c r="I5">
-        <v>10.61116309</v>
+        <v>6.2447894249999996</v>
       </c>
       <c r="J5">
-        <v>15249.5205078125</v>
+        <v>1054.1328125</v>
       </c>
       <c r="K5">
-        <v>799</v>
+        <v>306</v>
       </c>
       <c r="L5">
-        <v>925</v>
+        <v>874</v>
       </c>
       <c r="M5">
-        <v>0.68173139699999996</v>
+        <v>0.557230318000002</v>
       </c>
       <c r="N5">
-        <v>2419.8564453125</v>
+        <v>3168.6123046875</v>
       </c>
       <c r="O5">
-        <v>817</v>
+        <v>372</v>
       </c>
       <c r="P5">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="Q5">
-        <v>2.5719655000000001E-2</v>
+        <v>2.74200399999955E-2</v>
       </c>
       <c r="R5">
-        <v>18.109375</v>
+        <v>19.033203125</v>
       </c>
       <c r="S5" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C5,$G5)), ($C5:$G5),0,1)))</f>
-        <v>766</v>
+        <v>297</v>
       </c>
       <c r="T5" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C5,$G5)), ($C5:$G5),0,1)))</f>
-        <v>883</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1644,60 +1644,60 @@
         <v>198</v>
       </c>
       <c r="C6">
-        <v>438</v>
+        <v>150</v>
       </c>
       <c r="D6">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="E6">
-        <v>0.16351069300000001</v>
+        <v>9.7225836999996304E-2</v>
       </c>
       <c r="F6">
-        <v>815.5703125</v>
+        <v>740.5732421875</v>
       </c>
       <c r="G6">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="H6">
-        <v>453</v>
+        <v>357</v>
       </c>
       <c r="I6">
-        <v>4.5592574729999997</v>
+        <v>0.227612343999993</v>
       </c>
       <c r="J6">
-        <v>18091.61328125</v>
+        <v>18754.521484375</v>
       </c>
       <c r="K6">
-        <v>414</v>
+        <v>114</v>
       </c>
       <c r="L6">
-        <v>481</v>
+        <v>372</v>
       </c>
       <c r="M6">
-        <v>0.207285355</v>
+        <v>0.118053876000004</v>
       </c>
       <c r="N6">
-        <v>1570.9375</v>
+        <v>1541.1181640625</v>
       </c>
       <c r="O6">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="P6">
-        <v>435</v>
+        <v>352</v>
       </c>
       <c r="Q6">
-        <v>1.3623896999999999E-2</v>
+        <v>7.0142040000007403E-3</v>
       </c>
       <c r="R6">
-        <v>10.244140625</v>
+        <v>10.224609375</v>
       </c>
       <c r="S6" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C6,$G6)), ($C6:$G6),0,1)))</f>
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="T6" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C6,$G6)), ($C6:$G6),0,1)))</f>
-        <v>453</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1708,60 +1708,60 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E7">
-        <v>3.6825482999999999E-2</v>
+        <v>2.9704950999999299E-2</v>
       </c>
       <c r="F7">
-        <v>221.177734375</v>
+        <v>165.3876953125</v>
       </c>
       <c r="G7">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I7">
-        <v>1.0335724909999999</v>
+        <v>3.8838807000004701E-2</v>
       </c>
       <c r="J7">
-        <v>1854.0771484375</v>
+        <v>283.517578125</v>
       </c>
       <c r="K7">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="L7">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="M7">
-        <v>0.142039152</v>
+        <v>3.93556399999965E-2</v>
       </c>
       <c r="N7">
-        <v>576.9970703125</v>
+        <v>238.22265625</v>
       </c>
       <c r="O7">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="P7">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="Q7">
-        <v>4.9315729999999999E-3</v>
+        <v>3.80085499999438E-3</v>
       </c>
       <c r="R7">
-        <v>5.6689453125</v>
+        <v>5.1240234375</v>
       </c>
       <c r="S7" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C7,$G7)), ($C7:$G7),0,1)))</f>
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="T7" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C7,$G7)), ($C7:$G7),0,1)))</f>
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1772,60 +1772,60 @@
         <v>1405</v>
       </c>
       <c r="C8">
-        <v>3010</v>
+        <v>1620</v>
       </c>
       <c r="D8">
-        <v>3381</v>
+        <v>3399</v>
       </c>
       <c r="E8">
-        <v>1.050693272</v>
+        <v>1.3645918499999801</v>
       </c>
       <c r="F8">
-        <v>5562.3642578125</v>
+        <v>5520.2294921875</v>
       </c>
       <c r="G8">
-        <v>2620</v>
+        <v>1143</v>
       </c>
       <c r="H8">
-        <v>2923</v>
+        <v>2754</v>
       </c>
       <c r="I8">
-        <v>70.597025250000002</v>
+        <v>40.697389348999998</v>
       </c>
       <c r="J8">
-        <v>106617.21972656201</v>
+        <v>77800.80859375</v>
       </c>
       <c r="K8">
-        <v>2953</v>
+        <v>1512</v>
       </c>
       <c r="L8">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="M8">
-        <v>4.4669360329999996</v>
+        <v>4.1359263070000303</v>
       </c>
       <c r="N8">
-        <v>12828.68359375</v>
+        <v>11503.642578125</v>
       </c>
       <c r="O8">
-        <v>2707</v>
+        <v>1176</v>
       </c>
       <c r="P8">
-        <v>3077</v>
+        <v>2843</v>
       </c>
       <c r="Q8">
-        <v>9.4940994000000001E-2</v>
+        <v>7.3205123999997498E-2</v>
       </c>
       <c r="R8">
-        <v>53.4228515625</v>
+        <v>50.9951171875</v>
       </c>
       <c r="S8" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C8,$G8)), ($C8:$G8),0,1)))</f>
-        <v>2620</v>
+        <v>1143</v>
       </c>
       <c r="T8" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C8,$G8)), ($C8:$G8),0,1)))</f>
-        <v>2923</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -1836,60 +1836,60 @@
         <v>78</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E9">
-        <v>0.110266374</v>
+        <v>3.9535833000002102E-2</v>
       </c>
       <c r="F9">
-        <v>351.87109375</v>
+        <v>300.4921875</v>
       </c>
       <c r="G9">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="I9">
-        <v>0.62461990099999998</v>
+        <v>4.8303302000022003E-2</v>
       </c>
       <c r="J9">
-        <v>891.748046875</v>
+        <v>510.8662109375</v>
       </c>
       <c r="K9">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="L9">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="M9">
-        <v>5.3185815999999997E-2</v>
+        <v>4.5936784999980697E-2</v>
       </c>
       <c r="N9">
-        <v>621.236328125</v>
+        <v>500.7177734375</v>
       </c>
       <c r="O9">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="P9">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="Q9">
-        <v>3.8206360000000001E-3</v>
+        <v>2.81971399999747E-3</v>
       </c>
       <c r="R9">
-        <v>6.31640625</v>
+        <v>6.341796875</v>
       </c>
       <c r="S9" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C9,$G9)), ($C9:$G9),0,1)))</f>
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="T9" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C9,$G9)), ($C9:$G9),0,1)))</f>
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1900,60 +1900,60 @@
         <v>205</v>
       </c>
       <c r="C10">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="D10">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="E10">
-        <v>0.157948438</v>
+        <v>0.11776077100000699</v>
       </c>
       <c r="F10">
-        <v>727.73828125</v>
+        <v>829.4326171875</v>
       </c>
       <c r="G10">
-        <v>361</v>
+        <v>123</v>
       </c>
       <c r="H10">
+        <v>383</v>
+      </c>
+      <c r="I10">
+        <v>2.9347538139999698</v>
+      </c>
+      <c r="J10">
+        <v>12965.12890625</v>
+      </c>
+      <c r="K10">
+        <v>147</v>
+      </c>
+      <c r="L10">
         <v>410</v>
       </c>
-      <c r="I10">
-        <v>3.5725071439999998</v>
-      </c>
-      <c r="J10">
-        <v>11247.109375</v>
-      </c>
-      <c r="K10">
-        <v>367</v>
-      </c>
-      <c r="L10">
-        <v>402</v>
-      </c>
       <c r="M10">
-        <v>0.14003950900000001</v>
+        <v>0.232128517999967</v>
       </c>
       <c r="N10">
-        <v>603.0341796875</v>
+        <v>1189.4248046875</v>
       </c>
       <c r="O10">
-        <v>478</v>
+        <v>132</v>
       </c>
       <c r="P10">
-        <v>540</v>
+        <v>382</v>
       </c>
       <c r="Q10">
-        <v>1.8655307999999999E-2</v>
+        <v>9.3488800000045506E-3</v>
       </c>
       <c r="R10">
-        <v>9.759765625</v>
+        <v>10.54296875</v>
       </c>
       <c r="S10" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C10,$G10)), ($C10:$G10),0,1)))</f>
-        <v>361</v>
+        <v>123</v>
       </c>
       <c r="T10" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C10,$G10)), ($C10:$G10),0,1)))</f>
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1964,60 +1964,60 @@
         <v>104</v>
       </c>
       <c r="C11">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E11">
-        <v>6.6775884999999993E-2</v>
+        <v>4.8654183999985799E-2</v>
       </c>
       <c r="F11">
-        <v>369.1279296875</v>
+        <v>315.98828125</v>
       </c>
       <c r="G11">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="H11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I11">
-        <v>1.6732445929999999</v>
+        <v>1.0126416570000101</v>
       </c>
       <c r="J11">
-        <v>3004.5771484375</v>
+        <v>4461.5830078125</v>
       </c>
       <c r="K11">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="L11">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="M11">
-        <v>0.159378403</v>
+        <v>0.14131259300000901</v>
       </c>
       <c r="N11">
-        <v>248.63671875</v>
+        <v>873.3349609375</v>
       </c>
       <c r="O11">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="P11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q11">
-        <v>6.006712E-3</v>
+        <v>4.3369800000050401E-3</v>
       </c>
       <c r="R11">
-        <v>6.61328125</v>
+        <v>7.15625</v>
       </c>
       <c r="S11" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C11,$G11)), ($C11:$G11),0,1)))</f>
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="T11" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C11,$G11)), ($C11:$G11),0,1)))</f>
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -2028,60 +2028,60 @@
         <v>415</v>
       </c>
       <c r="C12">
-        <v>700</v>
+        <v>468</v>
       </c>
       <c r="D12">
-        <v>790</v>
+        <v>974</v>
       </c>
       <c r="E12">
-        <v>0.32020014600000002</v>
+        <v>0.30837276400001201</v>
       </c>
       <c r="F12">
-        <v>1699.7119140625</v>
+        <v>1482.5166015625</v>
       </c>
       <c r="G12">
-        <v>655</v>
+        <v>204</v>
       </c>
       <c r="H12">
-        <v>735</v>
+        <v>684</v>
       </c>
       <c r="I12">
-        <v>8.2440163789999996</v>
+        <v>8.6923847669999592</v>
       </c>
       <c r="J12">
-        <v>39070.830078125</v>
+        <v>28748.27734375</v>
       </c>
       <c r="K12">
-        <v>760</v>
+        <v>399</v>
       </c>
       <c r="L12">
-        <v>826</v>
+        <v>878</v>
       </c>
       <c r="M12">
-        <v>0.436119747</v>
+        <v>0.75352688899999898</v>
       </c>
       <c r="N12">
-        <v>2239.3876953125</v>
+        <v>3331.072265625</v>
       </c>
       <c r="O12">
-        <v>748</v>
+        <v>342</v>
       </c>
       <c r="P12">
-        <v>891</v>
+        <v>855</v>
       </c>
       <c r="Q12">
-        <v>2.376754E-2</v>
+        <v>2.0267571000033499E-2</v>
       </c>
       <c r="R12">
-        <v>18.2431640625</v>
+        <v>17.95703125</v>
       </c>
       <c r="S12" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C12,$G12)), ($C12:$G12),0,1)))</f>
-        <v>655</v>
+        <v>204</v>
       </c>
       <c r="T12" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C12,$G12)), ($C12:$G12),0,1)))</f>
-        <v>735</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -2092,60 +2092,60 @@
         <v>124</v>
       </c>
       <c r="C13">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E13">
-        <v>0.110220348</v>
+        <v>9.0028270999994206E-2</v>
       </c>
       <c r="F13">
-        <v>529.6240234375</v>
+        <v>510.4716796875</v>
       </c>
       <c r="G13">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="H13">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I13">
-        <v>5.5197202880000003</v>
+        <v>8.3460625850000199</v>
       </c>
       <c r="J13">
-        <v>14644.9248046875</v>
+        <v>332.48046875</v>
       </c>
       <c r="K13">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="L13">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M13">
-        <v>0.39437611</v>
+        <v>0.37467784300002899</v>
       </c>
       <c r="N13">
-        <v>902.6787109375</v>
+        <v>954.6591796875</v>
       </c>
       <c r="O13">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="P13">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="Q13">
-        <v>1.1821951000000001E-2</v>
+        <v>8.1416670000180602E-3</v>
       </c>
       <c r="R13">
-        <v>7.99609375</v>
+        <v>8.017578125</v>
       </c>
       <c r="S13" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C13,$G13)), ($C13:$G13),0,1)))</f>
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="T13" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C13,$G13)), ($C13:$G13),0,1)))</f>
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -2156,60 +2156,60 @@
         <v>49</v>
       </c>
       <c r="C14">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>2.6582972999999999E-2</v>
+        <v>2.0474448000015799E-2</v>
       </c>
       <c r="F14">
-        <v>149.037109375</v>
+        <v>150.7978515625</v>
       </c>
       <c r="G14">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="I14">
-        <v>3.5958590999999998E-2</v>
+        <v>1.8422982999993499E-2</v>
       </c>
       <c r="J14">
-        <v>340.80859375</v>
+        <v>401.7744140625</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="M14">
-        <v>2.2690352E-2</v>
+        <v>1.87563490000002E-2</v>
       </c>
       <c r="N14">
-        <v>200.822265625</v>
+        <v>316.390625</v>
       </c>
       <c r="O14">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="P14">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="Q14">
-        <v>2.1825479999999999E-3</v>
+        <v>3.9611650000210804E-3</v>
       </c>
       <c r="R14">
-        <v>4.52734375</v>
+        <v>4.7998046875</v>
       </c>
       <c r="S14" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C14,$G14)), ($C14:$G14),0,1)))</f>
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="T14" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C14,$G14)), ($C14:$G14),0,1)))</f>
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -2220,60 +2220,60 @@
         <v>65</v>
       </c>
       <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>133</v>
+      </c>
+      <c r="E15">
+        <v>2.85005790000241E-2</v>
+      </c>
+      <c r="F15">
+        <v>272.2373046875</v>
+      </c>
+      <c r="G15">
+        <v>39</v>
+      </c>
+      <c r="H15">
         <v>125</v>
       </c>
-      <c r="D15">
-        <v>146</v>
-      </c>
-      <c r="E15">
-        <v>5.9782584999999999E-2</v>
-      </c>
-      <c r="F15">
-        <v>217.0712890625</v>
-      </c>
-      <c r="G15">
-        <v>116</v>
-      </c>
-      <c r="H15">
-        <v>137</v>
-      </c>
       <c r="I15">
-        <v>0.74305390199999999</v>
+        <v>7.1907837000026106E-2</v>
       </c>
       <c r="J15">
-        <v>1662.845703125</v>
+        <v>2750.154296875</v>
       </c>
       <c r="K15">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="L15">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="M15">
-        <v>0.11788351900000001</v>
+        <v>3.6746417000017503E-2</v>
       </c>
       <c r="N15">
-        <v>145.54296875</v>
+        <v>211.49609375</v>
       </c>
       <c r="O15">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="P15">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="Q15">
-        <v>7.2511800000000003E-3</v>
+        <v>2.8303560000040302E-3</v>
       </c>
       <c r="R15">
-        <v>5.3427734375</v>
+        <v>5.7216796875</v>
       </c>
       <c r="S15" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C15,$G15)), ($C15:$G15),0,1)))</f>
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="T15" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C15,$G15)), ($C15:$G15),0,1)))</f>
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -2284,60 +2284,60 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E16">
-        <v>2.3108935000000001E-2</v>
+        <v>2.1864746000005601E-2</v>
       </c>
       <c r="F16">
-        <v>179.7412109375</v>
+        <v>197.158203125</v>
       </c>
       <c r="G16">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H16">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I16">
-        <v>3.4966287999999998E-2</v>
+        <v>2.5467893999973502E-2</v>
       </c>
       <c r="J16">
-        <v>1075.7880859375</v>
+        <v>1392.568359375</v>
       </c>
       <c r="K16">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="L16">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>1.7265716E-2</v>
+        <v>2.4862680000012401E-2</v>
       </c>
       <c r="N16">
-        <v>250.3232421875</v>
+        <v>253.09375</v>
       </c>
       <c r="O16">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="P16">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="Q16">
-        <v>4.9846090000000001E-3</v>
+        <v>3.0960490000211298E-3</v>
       </c>
       <c r="R16">
-        <v>4.8212890625</v>
+        <v>5.673828125</v>
       </c>
       <c r="S16" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C16,$G16)), ($C16:$G16),0,1)))</f>
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="T16" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C16,$G16)), ($C16:$G16),0,1)))</f>
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2348,60 +2348,60 @@
         <v>175</v>
       </c>
       <c r="C17">
-        <v>367</v>
+        <v>171</v>
       </c>
       <c r="D17">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="E17">
-        <v>0.12840468499999999</v>
+        <v>0.10484057600001501</v>
       </c>
       <c r="F17">
-        <v>644.3115234375</v>
+        <v>560.9248046875</v>
       </c>
       <c r="G17">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H17">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="I17">
-        <v>2.5034893980000001</v>
+        <v>1.1496496010000199</v>
       </c>
       <c r="J17">
-        <v>4421.0703125</v>
+        <v>5767.607421875</v>
       </c>
       <c r="K17">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="L17">
-        <v>338</v>
+        <v>431</v>
       </c>
       <c r="M17">
-        <v>0.119215495</v>
+        <v>0.13874603099998201</v>
       </c>
       <c r="N17">
-        <v>1266.5791015625</v>
+        <v>527.55859375</v>
       </c>
       <c r="O17">
-        <v>304</v>
+        <v>132</v>
       </c>
       <c r="P17">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q17">
-        <v>1.0329606E-2</v>
+        <v>9.7425939999879994E-3</v>
       </c>
       <c r="R17">
-        <v>10.349609375</v>
+        <v>9.677734375</v>
       </c>
       <c r="S17" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C17,$G17)), ($C17:$G17),0,1)))</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="T17" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C17,$G17)), ($C17:$G17),0,1)))</f>
-        <v>294</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -2412,60 +2412,60 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>7.9662989999999996E-3</v>
+        <v>2.6553689999673198E-3</v>
       </c>
       <c r="F18">
-        <v>45.8759765625</v>
+        <v>42.990234375</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I18">
-        <v>7.3962849999999998E-3</v>
+        <v>2.5815240000497302E-3</v>
       </c>
       <c r="J18">
-        <v>82.44921875</v>
+        <v>236.8623046875</v>
       </c>
       <c r="K18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>8.1071300000000006E-3</v>
+        <v>2.7412670000330698E-3</v>
       </c>
       <c r="N18">
-        <v>98.98046875</v>
+        <v>101.5166015625</v>
       </c>
       <c r="O18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q18">
-        <v>1.9444480000000001E-3</v>
+        <v>1.3789679999831599E-3</v>
       </c>
       <c r="R18">
-        <v>3.5078125</v>
+        <v>3.5625</v>
       </c>
       <c r="S18" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C18,$G18)), ($C18:$G18),0,1)))</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T18" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C18,$G18)), ($C18:$G18),0,1)))</f>
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -2476,60 +2476,60 @@
         <v>1498</v>
       </c>
       <c r="C19">
-        <v>3130</v>
+        <v>1749</v>
       </c>
       <c r="D19">
-        <v>3400</v>
+        <v>3569</v>
       </c>
       <c r="E19">
-        <v>1.2357015280000001</v>
+        <v>1.100386662</v>
       </c>
       <c r="F19">
-        <v>6110.75</v>
+        <v>5577.578125</v>
       </c>
       <c r="G19">
-        <v>2707</v>
+        <v>1221</v>
       </c>
       <c r="H19">
-        <v>2858</v>
+        <v>2852</v>
       </c>
       <c r="I19">
-        <v>63.832622860000001</v>
+        <v>51.912327690999902</v>
       </c>
       <c r="J19">
-        <v>3639.587890625</v>
+        <v>76232.3369140625</v>
       </c>
       <c r="K19">
-        <v>3160</v>
+        <v>1512</v>
       </c>
       <c r="L19">
-        <v>3325</v>
+        <v>3200</v>
       </c>
       <c r="M19">
-        <v>4.4544332940000002</v>
+        <v>3.7362224439999601</v>
       </c>
       <c r="N19">
-        <v>13668.078125</v>
+        <v>12832.99609375</v>
       </c>
       <c r="O19">
-        <v>2863</v>
+        <v>1305</v>
       </c>
       <c r="P19">
-        <v>3201</v>
+        <v>3159</v>
       </c>
       <c r="Q19">
-        <v>8.5792836999999997E-2</v>
+        <v>7.8562678000025699E-2</v>
       </c>
       <c r="R19">
-        <v>56.4736328125</v>
+        <v>56.3720703125</v>
       </c>
       <c r="S19" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C19,$G19)), ($C19:$G19),0,1)))</f>
-        <v>2707</v>
+        <v>1221</v>
       </c>
       <c r="T19" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C19,$G19)), ($C19:$G19),0,1)))</f>
-        <v>2858</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -2540,60 +2540,60 @@
         <v>59</v>
       </c>
       <c r="C20">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E20">
-        <v>4.1655462999999997E-2</v>
+        <v>3.7174361000097599E-2</v>
       </c>
       <c r="F20">
-        <v>201.0380859375</v>
+        <v>234.1162109375</v>
       </c>
       <c r="G20">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I20">
-        <v>0.75316011800000005</v>
+        <v>4.7135836000052202E-2</v>
       </c>
       <c r="J20">
-        <v>330.455078125</v>
+        <v>2766.1162109375</v>
       </c>
       <c r="K20">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="L20">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20">
-        <v>5.0147002000000003E-2</v>
+        <v>4.2611780000015601E-2</v>
       </c>
       <c r="N20">
-        <v>322.861328125</v>
+        <v>401.7958984375</v>
       </c>
       <c r="O20">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="P20">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q20">
-        <v>4.7162799999999998E-3</v>
+        <v>3.3598140000776701E-3</v>
       </c>
       <c r="R20">
-        <v>5.27734375</v>
+        <v>5.580078125</v>
       </c>
       <c r="S20" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C20,$G20)), ($C20:$G20),0,1)))</f>
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="T20" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C20,$G20)), ($C20:$G20),0,1)))</f>
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -2604,60 +2604,60 @@
         <v>126</v>
       </c>
       <c r="C21">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="D21">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E21">
-        <v>9.3881698999999999E-2</v>
+        <v>6.3927946999911001E-2</v>
       </c>
       <c r="F21">
-        <v>461.689453125</v>
+        <v>566.8173828125</v>
       </c>
       <c r="G21">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="H21">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="I21">
-        <v>0.25726460299999998</v>
+        <v>0.186508279999998</v>
       </c>
       <c r="J21">
-        <v>14209.0458984375</v>
+        <v>4996.1884765625</v>
       </c>
       <c r="K21">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="L21">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="M21">
-        <v>0.14405559800000001</v>
+        <v>6.7876149999960902E-2</v>
       </c>
       <c r="N21">
-        <v>518.5986328125</v>
+        <v>621.08203125</v>
       </c>
       <c r="O21">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="P21">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="Q21">
-        <v>1.2769513E-2</v>
+        <v>5.9466019999945196E-3</v>
       </c>
       <c r="R21">
-        <v>7.3369140625</v>
+        <v>8.6572265625</v>
       </c>
       <c r="S21" cm="1">
         <f t="array" aca="1" ref="S21" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C21,$G21)), ($C21:$G21),0,1)))</f>
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="T21" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C21,$G21)), ($C21:$G21),0,1)))</f>
-        <v>199</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -2668,60 +2668,60 @@
         <v>223</v>
       </c>
       <c r="C22">
-        <v>421</v>
+        <v>183</v>
       </c>
       <c r="D22">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E22">
-        <v>0.21953314500000001</v>
+        <v>0.13172934199997099</v>
       </c>
       <c r="F22">
-        <v>870.2333984375</v>
+        <v>806.09765625</v>
       </c>
       <c r="G22">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="H22">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="I22">
-        <v>9.6844770520000001</v>
+        <v>3.6798712040000501</v>
       </c>
       <c r="J22">
-        <v>6366.6005859375</v>
+        <v>6336.9150390625</v>
       </c>
       <c r="K22">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="L22">
-        <v>390</v>
+        <v>499</v>
       </c>
       <c r="M22">
-        <v>0.43223267300000001</v>
+        <v>0.33983837300002001</v>
       </c>
       <c r="N22">
-        <v>1070.8818359375</v>
+        <v>524.46484375</v>
       </c>
       <c r="O22">
-        <v>442</v>
+        <v>162</v>
       </c>
       <c r="P22">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="Q22">
-        <v>2.4641652E-2</v>
+        <v>1.2009963999958E-2</v>
       </c>
       <c r="R22">
-        <v>11.380859375</v>
+        <v>12.033203125</v>
       </c>
       <c r="S22" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C22,$G22)), ($C22:$G22),0,1)))</f>
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="T22" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C22,$G22)), ($C22:$G22),0,1)))</f>
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -2732,60 +2732,60 @@
         <v>46</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E23">
-        <v>5.3099093E-2</v>
+        <v>1.4740579999966001E-2</v>
       </c>
       <c r="F23">
-        <v>156.8251953125</v>
+        <v>194.3076171875</v>
       </c>
       <c r="G23">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H23">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I23">
-        <v>0.59370756899999999</v>
+        <v>2.9967501999976699E-2</v>
       </c>
       <c r="J23">
-        <v>1028.412109375</v>
+        <v>2272.37109375</v>
       </c>
       <c r="K23">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="L23">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="M23">
-        <v>0.196689104</v>
+        <v>2.7581943000086501E-2</v>
       </c>
       <c r="N23">
-        <v>289.08203125</v>
+        <v>495.181640625</v>
       </c>
       <c r="O23">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="P23">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="Q23">
-        <v>7.621208E-3</v>
+        <v>2.5176139999984999E-3</v>
       </c>
       <c r="R23">
-        <v>4.7861328125</v>
+        <v>4.7353515625</v>
       </c>
       <c r="S23" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C23,$G23)), ($C23:$G23),0,1)))</f>
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T23" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C23,$G23)), ($C23:$G23),0,1)))</f>
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -2796,60 +2796,60 @@
         <v>200</v>
       </c>
       <c r="C24">
-        <v>386</v>
+        <v>195</v>
       </c>
       <c r="D24">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="E24">
-        <v>0.20083273200000001</v>
+        <v>0.137299708999989</v>
       </c>
       <c r="F24">
-        <v>913.11328125</v>
+        <v>750.09375</v>
       </c>
       <c r="G24">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="H24">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="I24">
-        <v>5.6841479110000002</v>
+        <v>2.8430058009999999</v>
       </c>
       <c r="J24">
-        <v>11269.0126953125</v>
+        <v>14655.486328125</v>
       </c>
       <c r="K24">
-        <v>395</v>
+        <v>219</v>
       </c>
       <c r="L24">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="M24">
-        <v>0.33281576200000001</v>
+        <v>0.24505391499997101</v>
       </c>
       <c r="N24">
-        <v>2023.3408203125</v>
+        <v>1187.3857421875</v>
       </c>
       <c r="O24">
-        <v>350</v>
+        <v>162</v>
       </c>
       <c r="P24">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="Q24">
-        <v>1.6719404E-2</v>
+        <v>1.0767655999984501E-2</v>
       </c>
       <c r="R24">
-        <v>11.2001953125</v>
+        <v>10.5302734375</v>
       </c>
       <c r="S24" cm="1">
         <f t="array" aca="1" ref="S24" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C24,$G24)), ($C24:$G24),0,1)))</f>
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="T24" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C24,$G24)), ($C24:$G24),0,1)))</f>
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2860,60 +2860,60 @@
         <v>77</v>
       </c>
       <c r="C25">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E25">
-        <v>4.6810782000000002E-2</v>
+        <v>5.3885405999949398E-2</v>
       </c>
       <c r="F25">
-        <v>301.4716796875</v>
+        <v>275.4384765625</v>
       </c>
       <c r="G25">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="H25">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I25">
-        <v>4.1573307489999998</v>
+        <v>1.8155083430000301</v>
       </c>
       <c r="J25">
-        <v>2829.6953125</v>
+        <v>5761.845703125</v>
       </c>
       <c r="K25">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="L25">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="M25">
-        <v>0.53593096900000003</v>
+        <v>0.142867572</v>
       </c>
       <c r="N25">
-        <v>602.1416015625</v>
+        <v>604.603515625</v>
       </c>
       <c r="O25">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="P25">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="Q25">
-        <v>6.9925359999999997E-3</v>
+        <v>4.7296740000319897E-3</v>
       </c>
       <c r="R25">
-        <v>6.1337890625</v>
+        <v>6.0693359375</v>
       </c>
       <c r="S25" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C25,$G25)), ($C25:$G25),0,1)))</f>
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="T25" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C25,$G25)), ($C25:$G25),0,1)))</f>
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -2924,60 +2924,60 @@
         <v>72</v>
       </c>
       <c r="C26">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E26">
-        <v>2.4991161000000001E-2</v>
+        <v>4.18521689999806E-2</v>
       </c>
       <c r="F26">
-        <v>256.43359375</v>
+        <v>287.8046875</v>
       </c>
       <c r="G26">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="H26">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="I26">
-        <v>0.32428105699999998</v>
+        <v>4.4822491999980202E-2</v>
       </c>
       <c r="J26">
-        <v>1709.203125</v>
+        <v>5809.3935546875</v>
       </c>
       <c r="K26">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="L26">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="M26">
-        <v>1.9976667E-2</v>
+        <v>3.47088880000683E-2</v>
       </c>
       <c r="N26">
-        <v>436.8544921875</v>
+        <v>650.046875</v>
       </c>
       <c r="O26">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="P26">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="Q26">
-        <v>2.9558039999999998E-3</v>
+        <v>5.0770249999913999E-3</v>
       </c>
       <c r="R26">
-        <v>5.8359375</v>
+        <v>5.72265625</v>
       </c>
       <c r="S26" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C26,$G26)), ($C26:$G26),0,1)))</f>
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="T26" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C26,$G26)), ($C26:$G26),0,1)))</f>
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -2988,60 +2988,60 @@
         <v>1343</v>
       </c>
       <c r="C27">
-        <v>2531</v>
+        <v>1200</v>
       </c>
       <c r="D27">
-        <v>2805</v>
+        <v>2904</v>
       </c>
       <c r="E27">
-        <v>0.93202194199999999</v>
+        <v>0.81287976699991304</v>
       </c>
       <c r="F27">
-        <v>5146.25</v>
+        <v>5317.146484375</v>
       </c>
       <c r="G27">
-        <v>2216</v>
+        <v>822</v>
       </c>
       <c r="H27">
-        <v>2435</v>
+        <v>2358</v>
       </c>
       <c r="I27">
-        <v>35.86520316</v>
+        <v>42.316290545000001</v>
       </c>
       <c r="J27">
-        <v>113150.87402343701</v>
+        <v>83706.724609375</v>
       </c>
       <c r="K27">
-        <v>2576</v>
+        <v>1341</v>
       </c>
       <c r="L27">
-        <v>2794</v>
+        <v>2867</v>
       </c>
       <c r="M27">
-        <v>2.2591859599999999</v>
+        <v>3.21706335399994</v>
       </c>
       <c r="N27">
-        <v>3881.18359375</v>
+        <v>11865.02734375</v>
       </c>
       <c r="O27">
-        <v>2528</v>
+        <v>1218</v>
       </c>
       <c r="P27">
-        <v>2961</v>
+        <v>2895</v>
       </c>
       <c r="Q27">
-        <v>0.35393681100000002</v>
+        <v>7.98270389999515E-2</v>
       </c>
       <c r="R27">
-        <v>49.0224609375</v>
+        <v>50.63671875</v>
       </c>
       <c r="S27" cm="1">
         <f t="array" aca="1" ref="S27" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C27,$G27)), ($C27:$G27),0,1)))</f>
-        <v>2216</v>
+        <v>822</v>
       </c>
       <c r="T27" cm="1">
         <f t="array" aca="1" ref="T27" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C27,$G27)), ($C27:$G27),0,1)))</f>
-        <v>2435</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -3052,60 +3052,60 @@
         <v>283</v>
       </c>
       <c r="C28">
-        <v>451</v>
+        <v>162</v>
       </c>
       <c r="D28">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="E28">
-        <v>0.12776316600000001</v>
+        <v>0.14063009300002699</v>
       </c>
       <c r="F28">
-        <v>1133.3056640625</v>
+        <v>1212.0400390625</v>
       </c>
       <c r="G28">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="H28">
-        <v>496</v>
+        <v>399</v>
       </c>
       <c r="I28">
-        <v>5.8607238779999999</v>
+        <v>1.25689570999998</v>
       </c>
       <c r="J28">
-        <v>5908.173828125</v>
+        <v>32957.4716796875</v>
       </c>
       <c r="K28">
-        <v>496</v>
+        <v>195</v>
       </c>
       <c r="L28">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="M28">
-        <v>1.0837253440000001</v>
+        <v>0.43941695699993399</v>
       </c>
       <c r="N28">
-        <v>1792.3798828125</v>
+        <v>2717.177734375</v>
       </c>
       <c r="O28">
-        <v>529</v>
+        <v>189</v>
       </c>
       <c r="P28">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="Q28">
-        <v>1.4985149E-2</v>
+        <v>1.39639740000347E-2</v>
       </c>
       <c r="R28">
-        <v>13.765625</v>
+        <v>13.08984375</v>
       </c>
       <c r="S28" cm="1">
         <f t="array" aca="1" ref="S28" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C28,$G28)), ($C28:$G28),0,1)))</f>
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="T28" cm="1">
         <f t="array" aca="1" ref="T28" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C28,$G28)), ($C28:$G28),0,1)))</f>
-        <v>512</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -3116,60 +3116,60 @@
         <v>69</v>
       </c>
       <c r="C29">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E29">
-        <v>2.4071500999999999E-2</v>
+        <v>2.40246749999641E-2</v>
       </c>
       <c r="F29">
-        <v>216.2451171875</v>
+        <v>274.2255859375</v>
       </c>
       <c r="G29">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I29">
-        <v>0.12817920599999999</v>
+        <v>2.32574829999521E-2</v>
       </c>
       <c r="J29">
-        <v>952.1650390625</v>
+        <v>2501.673828125</v>
       </c>
       <c r="K29">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="L29">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M29">
-        <v>2.9685705999999999E-2</v>
+        <v>2.55224829999178E-2</v>
       </c>
       <c r="N29">
-        <v>342.5595703125</v>
+        <v>566.86328125</v>
       </c>
       <c r="O29">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="P29">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="Q29">
-        <v>4.6641470000000004E-3</v>
+        <v>2.8143829999862599E-3</v>
       </c>
       <c r="R29">
-        <v>5.7333984375</v>
+        <v>6.0888671875</v>
       </c>
       <c r="S29" cm="1">
         <f t="array" aca="1" ref="S29" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C29,$G29)), ($C29:$G29),0,1)))</f>
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="T29" cm="1">
         <f t="array" aca="1" ref="T29" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C29,$G29)), ($C29:$G29),0,1)))</f>
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -3180,60 +3180,60 @@
         <v>38</v>
       </c>
       <c r="C30">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E30">
-        <v>9.9885679999999998E-3</v>
+        <v>1.6250083999921099E-2</v>
       </c>
       <c r="F30">
-        <v>145.9130859375</v>
+        <v>169.0771484375</v>
       </c>
       <c r="G30">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H30">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I30">
-        <v>1.0110101999999999E-2</v>
+        <v>1.5087270999970301E-2</v>
       </c>
       <c r="J30">
-        <v>199.7451171875</v>
+        <v>2194.7255859375</v>
       </c>
       <c r="K30">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="L30">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="M30">
-        <v>1.1005404E-2</v>
+        <v>1.74072180000166E-2</v>
       </c>
       <c r="N30">
-        <v>192.1982421875</v>
+        <v>374.0810546875</v>
       </c>
       <c r="O30">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="P30">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q30">
-        <v>4.004769E-3</v>
+        <v>3.9329800000587004E-3</v>
       </c>
       <c r="R30">
-        <v>4.837890625</v>
+        <v>4.6748046875</v>
       </c>
       <c r="S30" cm="1">
         <f t="array" aca="1" ref="S30" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C30,$G30)), ($C30:$G30),0,1)))</f>
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="T30" cm="1">
         <f t="array" aca="1" ref="T30" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C30,$G30)), ($C30:$G30),0,1)))</f>
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -3244,60 +3244,60 @@
         <v>123</v>
       </c>
       <c r="C31">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="D31">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="E31">
-        <v>8.0123130000000001E-2</v>
+        <v>8.6356963000071105E-2</v>
       </c>
       <c r="F31">
-        <v>486.3955078125</v>
+        <v>454.5576171875</v>
       </c>
       <c r="G31">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="H31">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="I31">
-        <v>3.7453809850000002</v>
+        <v>4.8544378220000199</v>
       </c>
       <c r="J31">
-        <v>8067.287109375</v>
+        <v>5219.3798828125</v>
       </c>
       <c r="K31">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="L31">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M31">
-        <v>0.20478248800000001</v>
+        <v>0.49590072799992402</v>
       </c>
       <c r="N31">
-        <v>1372.8720703125</v>
+        <v>392.72265625</v>
       </c>
       <c r="O31">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="P31">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="Q31">
-        <v>1.7711127E-2</v>
+        <v>9.9678179999500502E-3</v>
       </c>
       <c r="R31">
-        <v>7.6083984375</v>
+        <v>7.5791015625</v>
       </c>
       <c r="S31" cm="1">
         <f t="array" aca="1" ref="S31" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C31,$G31)), ($C31:$G31),0,1)))</f>
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="T31" cm="1">
         <f t="array" aca="1" ref="T31" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C31,$G31)), ($C31:$G31),0,1)))</f>
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -3308,60 +3308,60 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E32">
-        <v>2.1212436000000001E-2</v>
+        <v>2.1442699999965901E-2</v>
       </c>
       <c r="F32">
-        <v>144.0009765625</v>
+        <v>119.21875</v>
       </c>
       <c r="G32">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H32">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32">
-        <v>0.100644312</v>
+        <v>1.6135996000002699E-2</v>
       </c>
       <c r="J32">
-        <v>927.9443359375</v>
+        <v>551.9541015625</v>
       </c>
       <c r="K32">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="L32">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>8.4743731000000003E-2</v>
+        <v>1.60444690000076E-2</v>
       </c>
       <c r="N32">
-        <v>94.91015625</v>
+        <v>311.224609375</v>
       </c>
       <c r="O32">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="P32">
         <v>63</v>
       </c>
       <c r="Q32">
-        <v>3.0564009999999998E-3</v>
+        <v>4.2809839999335903E-3</v>
       </c>
       <c r="R32">
-        <v>4.703125</v>
+        <v>4.67578125</v>
       </c>
       <c r="S32" cm="1">
         <f t="array" aca="1" ref="S32" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C32,$G32)), ($C32:$G32),0,1)))</f>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="T32" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C32,$G32)), ($C32:$G32),0,1)))</f>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -3372,60 +3372,60 @@
         <v>23</v>
       </c>
       <c r="C33">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E33">
-        <v>1.867539E-2</v>
+        <v>4.56159299994851E-3</v>
       </c>
       <c r="F33">
-        <v>103.583984375</v>
+        <v>104.6083984375</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I33">
-        <v>1.5960927999999999E-2</v>
+        <v>4.6508169999697202E-3</v>
       </c>
       <c r="J33">
-        <v>158.5458984375</v>
+        <v>1670.1474609375</v>
       </c>
       <c r="K33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>1.6451232E-2</v>
+        <v>4.5996869999953499E-3</v>
       </c>
       <c r="N33">
-        <v>145.0927734375</v>
+        <v>146.294921875</v>
       </c>
       <c r="O33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="Q33">
-        <v>3.3045679999999999E-3</v>
+        <v>1.5131169999449399E-3</v>
       </c>
       <c r="R33">
-        <v>4.24609375</v>
+        <v>4.009765625</v>
       </c>
       <c r="S33" cm="1">
         <f t="array" aca="1" ref="S33" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C33,$G33)), ($C33:$G33),0,1)))</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T33" cm="1">
         <f t="array" aca="1" ref="T33" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C33,$G33)), ($C33:$G33),0,1)))</f>
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -3436,56 +3436,56 @@
         <v>16</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>21</v>
       </c>
       <c r="E34">
-        <v>3.714401E-3</v>
+        <v>3.8365579999890499E-3</v>
       </c>
       <c r="F34">
-        <v>73.646484375</v>
+        <v>53.97265625</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>21</v>
       </c>
       <c r="I34">
-        <v>3.5490040000000001E-3</v>
+        <v>3.9211019999356696E-3</v>
       </c>
       <c r="J34">
-        <v>227.6669921875</v>
+        <v>106.3408203125</v>
       </c>
       <c r="K34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>21</v>
       </c>
       <c r="M34">
-        <v>3.5736510000000002E-3</v>
+        <v>4.7193070000730499E-3</v>
       </c>
       <c r="N34">
-        <v>145.3486328125</v>
+        <v>120.6142578125</v>
       </c>
       <c r="O34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>21</v>
       </c>
       <c r="Q34">
-        <v>1.3619330000000001E-3</v>
+        <v>2.1793930000058E-3</v>
       </c>
       <c r="R34">
-        <v>3.951171875</v>
+        <v>3.81640625</v>
       </c>
       <c r="S34" cm="1">
         <f t="array" aca="1" ref="S34" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C34,$G34)), ($C34:$G34),0,1)))</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T34" cm="1">
         <f t="array" aca="1" ref="T34" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C34,$G34)), ($C34:$G34),0,1)))</f>
@@ -3500,60 +3500,60 @@
         <v>833</v>
       </c>
       <c r="C35">
-        <v>1736</v>
+        <v>624</v>
       </c>
       <c r="D35">
-        <v>1950</v>
+        <v>1674</v>
       </c>
       <c r="E35">
-        <v>0.66286505200000001</v>
+        <v>0.44903882099993098</v>
       </c>
       <c r="F35">
-        <v>3366.6826171875</v>
+        <v>3076.9970703125</v>
       </c>
       <c r="G35">
-        <v>1205</v>
+        <v>486</v>
       </c>
       <c r="H35">
-        <v>1335</v>
+        <v>1490</v>
       </c>
       <c r="I35">
-        <v>6.0662506309999999</v>
+        <v>12.009157905999899</v>
       </c>
       <c r="J35">
-        <v>28973.3330078125</v>
+        <v>1845.47265625</v>
       </c>
       <c r="K35">
-        <v>1457</v>
+        <v>582</v>
       </c>
       <c r="L35">
-        <v>1613</v>
+        <v>1541</v>
       </c>
       <c r="M35">
-        <v>1.1546041309999999</v>
+        <v>1.3412686010000201</v>
       </c>
       <c r="N35">
-        <v>2153.68359375</v>
+        <v>1939.77734375</v>
       </c>
       <c r="O35">
-        <v>1421</v>
+        <v>669</v>
       </c>
       <c r="P35">
-        <v>1594</v>
+        <v>1745</v>
       </c>
       <c r="Q35">
-        <v>4.1772331000000003E-2</v>
+        <v>4.0692454000009003E-2</v>
       </c>
       <c r="R35">
-        <v>33.8701171875</v>
+        <v>31.908203125</v>
       </c>
       <c r="S35" cm="1">
         <f t="array" aca="1" ref="S35" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C35,$G35)), ($C35:$G35),0,1)))</f>
-        <v>1205</v>
+        <v>486</v>
       </c>
       <c r="T35" cm="1">
         <f t="array" aca="1" ref="T35" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C35,$G35)), ($C35:$G35),0,1)))</f>
-        <v>1335</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -3564,60 +3564,60 @@
         <v>149</v>
       </c>
       <c r="C36">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="D36">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="E36">
-        <v>0.156367324</v>
+        <v>8.3132169000009498E-2</v>
       </c>
       <c r="F36">
-        <v>687.0576171875</v>
+        <v>585.7841796875</v>
       </c>
       <c r="G36">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="H36">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="I36">
-        <v>0.23370656400000001</v>
+        <v>0.490364450000015</v>
       </c>
       <c r="J36">
-        <v>5144.0556640625</v>
+        <v>3153.4521484375</v>
       </c>
       <c r="K36">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="L36">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="M36">
-        <v>0.16299514600000001</v>
+        <v>0.102919851000024</v>
       </c>
       <c r="N36">
-        <v>1488.0146484375</v>
+        <v>556.95703125</v>
       </c>
       <c r="O36">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c r="P36">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="Q36">
-        <v>1.7618987999999999E-2</v>
+        <v>7.4594709999473699E-3</v>
       </c>
       <c r="R36">
-        <v>8.7490234375</v>
+        <v>8.81640625</v>
       </c>
       <c r="S36" cm="1">
         <f t="array" aca="1" ref="S36" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C36,$G36)), ($C36:$G36),0,1)))</f>
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="T36" cm="1">
         <f t="array" aca="1" ref="T36" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C36,$G36)), ($C36:$G36),0,1)))</f>
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -3628,60 +3628,60 @@
         <v>32</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E37">
-        <v>1.7844524E-2</v>
+        <v>1.14709120000497E-2</v>
       </c>
       <c r="F37">
-        <v>122.7138671875</v>
+        <v>126.0029296875</v>
       </c>
       <c r="G37">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="H37">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I37">
-        <v>0.17577057300000001</v>
+        <v>9.3527610000592107E-3</v>
       </c>
       <c r="J37">
-        <v>263.2451171875</v>
+        <v>426.2958984375</v>
       </c>
       <c r="K37">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="M37">
-        <v>3.2902879000000003E-2</v>
+        <v>9.5608100000390498E-3</v>
       </c>
       <c r="N37">
-        <v>252.2060546875</v>
+        <v>252.98828125</v>
       </c>
       <c r="O37">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="P37">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Q37">
-        <v>2.7310400000000001E-3</v>
+        <v>1.8943900000749599E-3</v>
       </c>
       <c r="R37">
-        <v>4.408203125</v>
+        <v>4.39453125</v>
       </c>
       <c r="S37" cm="1">
         <f t="array" aca="1" ref="S37" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C37,$G37)), ($C37:$G37),0,1)))</f>
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="T37" cm="1">
         <f t="array" aca="1" ref="T37" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C37,$G37)), ($C37:$G37),0,1)))</f>
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -3692,60 +3692,60 @@
         <v>239</v>
       </c>
       <c r="C38">
-        <v>500</v>
+        <v>228</v>
       </c>
       <c r="D38">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E38">
-        <v>0.18265466</v>
+        <v>0.156341718000021</v>
       </c>
       <c r="F38">
-        <v>916.607421875</v>
+        <v>968.943359375</v>
       </c>
       <c r="G38">
-        <v>440</v>
+        <v>123</v>
       </c>
       <c r="H38">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="I38">
-        <v>6.7878384919999997</v>
+        <v>1.65896393399998</v>
       </c>
       <c r="J38">
-        <v>9851.0068359375</v>
+        <v>8472.4619140625</v>
       </c>
       <c r="K38">
-        <v>440</v>
+        <v>201</v>
       </c>
       <c r="L38">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="M38">
-        <v>0.351820513</v>
+        <v>0.27073569699996303</v>
       </c>
       <c r="N38">
-        <v>538.01953125</v>
+        <v>1641.662109375</v>
       </c>
       <c r="O38">
-        <v>455</v>
+        <v>216</v>
       </c>
       <c r="P38">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q38">
-        <v>1.7488963E-2</v>
+        <v>1.4152118999959299E-2</v>
       </c>
       <c r="R38">
-        <v>11.3388671875</v>
+        <v>12.380859375</v>
       </c>
       <c r="S38" cm="1">
         <f t="array" aca="1" ref="S38" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C38,$G38)), ($C38:$G38),0,1)))</f>
-        <v>440</v>
+        <v>123</v>
       </c>
       <c r="T38" cm="1">
         <f t="array" aca="1" ref="T38" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C38,$G38)), ($C38:$G38),0,1)))</f>
-        <v>519</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -3756,60 +3756,60 @@
         <v>32</v>
       </c>
       <c r="C39">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E39">
-        <v>2.2039618E-2</v>
+        <v>1.4077866999969E-2</v>
       </c>
       <c r="F39">
-        <v>123.859375</v>
+        <v>120.119140625</v>
       </c>
       <c r="G39">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H39">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="I39">
-        <v>5.3859836000000001E-2</v>
+        <v>1.41833170000609E-2</v>
       </c>
       <c r="J39">
-        <v>988.958984375</v>
+        <v>215.8623046875</v>
       </c>
       <c r="K39">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="L39">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="M39">
-        <v>5.8330634999999999E-2</v>
+        <v>1.4575261000004501E-2</v>
       </c>
       <c r="N39">
-        <v>274.6826171875</v>
+        <v>202.529296875</v>
       </c>
       <c r="O39">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="P39">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q39">
-        <v>3.7102250000000002E-3</v>
+        <v>2.8798199999755499E-3</v>
       </c>
       <c r="R39">
-        <v>4.5517578125</v>
+        <v>4.3115234375</v>
       </c>
       <c r="S39" cm="1">
         <f t="array" aca="1" ref="S39" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C39,$G39)), ($C39:$G39),0,1)))</f>
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="T39" cm="1">
         <f t="array" aca="1" ref="T39" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C39,$G39)), ($C39:$G39),0,1)))</f>
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -3820,60 +3820,60 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>6.0939949999999996E-3</v>
+        <v>2.2899979999237898E-3</v>
       </c>
       <c r="F40">
-        <v>27.3271484375</v>
+        <v>27.3193359375</v>
       </c>
       <c r="G40">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I40">
-        <v>1.6220571999999999E-2</v>
+        <v>2.34884899998633E-3</v>
       </c>
       <c r="J40">
-        <v>33.3701171875</v>
+        <v>88.705078125</v>
       </c>
       <c r="K40">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M40">
-        <v>1.5747797000000001E-2</v>
+        <v>2.74662699996497E-3</v>
       </c>
       <c r="N40">
-        <v>31.7998046875</v>
+        <v>61.9833984375</v>
       </c>
       <c r="O40">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q40">
-        <v>1.967894E-3</v>
+        <v>1.11350499992113E-3</v>
       </c>
       <c r="R40">
-        <v>3.560546875</v>
+        <v>3.67578125</v>
       </c>
       <c r="S40" cm="1">
         <f t="array" aca="1" ref="S40" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C40,$G40)), ($C40:$G40),0,1)))</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="T40" cm="1">
         <f t="array" aca="1" ref="T40" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C40,$G40)), ($C40:$G40),0,1)))</f>
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -3884,56 +3884,56 @@
         <v>196</v>
       </c>
       <c r="C41">
-        <v>349</v>
+        <v>162</v>
       </c>
       <c r="D41">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E41">
-        <v>0.275682712</v>
+        <v>0.10295978800002099</v>
       </c>
       <c r="F41">
-        <v>904.1025390625</v>
+        <v>727.0244140625</v>
       </c>
       <c r="G41">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="H41">
         <v>352</v>
       </c>
       <c r="I41">
-        <v>3.2739838790000002</v>
+        <v>3.4428932780000401</v>
       </c>
       <c r="J41">
-        <v>4436.853515625</v>
+        <v>329.61328125</v>
       </c>
       <c r="K41">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="L41">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="M41">
-        <v>0.25212213100000003</v>
+        <v>0.126709001999984</v>
       </c>
       <c r="N41">
-        <v>1189.2177734375</v>
+        <v>1469.318359375</v>
       </c>
       <c r="O41">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="P41">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="Q41">
-        <v>3.6769636000000001E-2</v>
+        <v>1.06073959999548E-2</v>
       </c>
       <c r="R41">
-        <v>10.546875</v>
+        <v>10.962890625</v>
       </c>
       <c r="S41" cm="1">
         <f t="array" aca="1" ref="S41" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C41,$G41)), ($C41:$G41),0,1)))</f>
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="T41" cm="1">
         <f t="array" aca="1" ref="T41" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C41,$G41)), ($C41:$G41),0,1)))</f>
@@ -3948,60 +3948,60 @@
         <v>120</v>
       </c>
       <c r="C42">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="E42">
-        <v>8.8378704000000002E-2</v>
+        <v>5.45452620000332E-2</v>
       </c>
       <c r="F42">
-        <v>654.533203125</v>
+        <v>654.7119140625</v>
       </c>
       <c r="G42">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="H42">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I42">
-        <v>0.73617108099999995</v>
+        <v>3.5457249670000599</v>
       </c>
       <c r="J42">
-        <v>678.263671875</v>
+        <v>678.4423828125</v>
       </c>
       <c r="K42">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="L42">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="M42">
-        <v>7.7529099000000004E-2</v>
+        <v>0.27216903600015002</v>
       </c>
       <c r="N42">
-        <v>677.240234375</v>
+        <v>672.9189453125</v>
       </c>
       <c r="O42">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="P42">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="Q42">
-        <v>6.6908719999999996E-3</v>
+        <v>6.1208870000655198E-3</v>
       </c>
       <c r="R42">
-        <v>11.4794921875</v>
+        <v>12.0927734375</v>
       </c>
       <c r="S42" cm="1">
         <f t="array" aca="1" ref="S42" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C42,$G42)), ($C42:$G42),0,1)))</f>
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="T42" cm="1">
         <f t="array" aca="1" ref="T42" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C42,$G42)), ($C42:$G42),0,1)))</f>
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -4012,60 +4012,60 @@
         <v>336</v>
       </c>
       <c r="C43">
-        <v>648</v>
+        <v>330</v>
       </c>
       <c r="D43">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="E43">
-        <v>0.54012908800000003</v>
+        <v>0.20997997300014501</v>
       </c>
       <c r="F43">
-        <v>1244.3798828125</v>
+        <v>1343.0947265625</v>
       </c>
       <c r="G43">
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="H43">
-        <v>671</v>
+        <v>722</v>
       </c>
       <c r="I43">
-        <v>7.1173614550000002</v>
+        <v>1.6520655749998201</v>
       </c>
       <c r="J43">
-        <v>10865.8671875</v>
+        <v>9367.8896484375</v>
       </c>
       <c r="K43">
-        <v>618</v>
+        <v>297</v>
       </c>
       <c r="L43">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="M43">
-        <v>0.38008616499999998</v>
+        <v>0.37689336499988702</v>
       </c>
       <c r="N43">
-        <v>1839.0078125</v>
+        <v>1521.677734375</v>
       </c>
       <c r="O43">
-        <v>708</v>
+        <v>282</v>
       </c>
       <c r="P43">
-        <v>810</v>
+        <v>735</v>
       </c>
       <c r="Q43">
-        <v>2.7172432E-2</v>
+        <v>1.9379591999950201E-2</v>
       </c>
       <c r="R43">
-        <v>15.626953125</v>
+        <v>15.6279296875</v>
       </c>
       <c r="S43" cm="1">
         <f t="array" aca="1" ref="S43" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C43,$G43)), ($C43:$G43),0,1)))</f>
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="T43" cm="1">
         <f t="array" aca="1" ref="T43" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C43,$G43)), ($C43:$G43),0,1)))</f>
-        <v>671</v>
+        <v>722</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -4076,60 +4076,60 @@
         <v>771</v>
       </c>
       <c r="C44">
-        <v>1374</v>
+        <v>609</v>
       </c>
       <c r="D44">
-        <v>1597</v>
+        <v>1525</v>
       </c>
       <c r="E44">
-        <v>0.50375757099999996</v>
+        <v>0.43869034199997198</v>
       </c>
       <c r="F44">
-        <v>3301.3310546875</v>
+        <v>2855.7724609375</v>
       </c>
       <c r="G44">
-        <v>1158</v>
+        <v>588</v>
       </c>
       <c r="H44">
-        <v>1302</v>
+        <v>1492</v>
       </c>
       <c r="I44">
-        <v>7.4469376409999999</v>
+        <v>12.0018587070001</v>
       </c>
       <c r="J44">
-        <v>1550.48828125</v>
+        <v>37051.6845703125</v>
       </c>
       <c r="K44">
-        <v>1284</v>
+        <v>558</v>
       </c>
       <c r="L44">
-        <v>1422</v>
+        <v>1481</v>
       </c>
       <c r="M44">
-        <v>1.073162873</v>
+        <v>1.0243470220000199</v>
       </c>
       <c r="N44">
-        <v>4691.5859375</v>
+        <v>5601.8515625</v>
       </c>
       <c r="O44">
-        <v>1194</v>
+        <v>555</v>
       </c>
       <c r="P44">
-        <v>1349</v>
+        <v>1539</v>
       </c>
       <c r="Q44">
-        <v>2.9843002E-2</v>
+        <v>3.8281513999891097E-2</v>
       </c>
       <c r="R44">
-        <v>29.1845703125</v>
+        <v>30.8291015625</v>
       </c>
       <c r="S44" cm="1">
         <f t="array" aca="1" ref="S44" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C44,$G44)), ($C44:$G44),0,1)))</f>
-        <v>1158</v>
+        <v>588</v>
       </c>
       <c r="T44" cm="1">
         <f t="array" aca="1" ref="T44" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C44,$G44)), ($C44:$G44),0,1)))</f>
-        <v>1302</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -4140,60 +4140,60 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E45">
-        <v>3.4756328000000003E-2</v>
+        <v>3.3223558000145197E-2</v>
       </c>
       <c r="F45">
-        <v>379.509765625</v>
+        <v>304.0009765625</v>
       </c>
       <c r="G45">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="I45">
-        <v>0.380120929</v>
+        <v>0.34280452899997699</v>
       </c>
       <c r="J45">
-        <v>10457.9892578125</v>
+        <v>3127.8896484375</v>
       </c>
       <c r="K45">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="L45">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="M45">
-        <v>0.14074025700000001</v>
+        <v>4.9067914000033797E-2</v>
       </c>
       <c r="N45">
-        <v>269.30859375</v>
+        <v>752.3671875</v>
       </c>
       <c r="O45">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="P45">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="Q45">
-        <v>7.5448959999999997E-3</v>
+        <v>5.3152699999827703E-3</v>
       </c>
       <c r="R45">
-        <v>6.6474609375</v>
+        <v>6.955078125</v>
       </c>
       <c r="S45" cm="1">
         <f t="array" aca="1" ref="S45" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C45,$G45)), ($C45:$G45),0,1)))</f>
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="T45" cm="1">
         <f t="array" aca="1" ref="T45" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C45,$G45)), ($C45:$G45),0,1)))</f>
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -4204,60 +4204,60 @@
         <v>17</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E46">
-        <v>9.3504399999999998E-3</v>
+        <v>4.58198699993772E-3</v>
       </c>
       <c r="F46">
-        <v>65.6337890625</v>
+        <v>53.4619140625</v>
       </c>
       <c r="G46">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I46">
-        <v>2.0999929000000001E-2</v>
+        <v>9.8884070000622108E-3</v>
       </c>
       <c r="J46">
-        <v>1854.462890625</v>
+        <v>378.859375</v>
       </c>
       <c r="K46">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>1.4593042000000001E-2</v>
+        <v>1.13947749998715E-2</v>
       </c>
       <c r="N46">
-        <v>216.0166015625</v>
+        <v>159.009765625</v>
       </c>
       <c r="O46">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q46">
-        <v>2.2636380000000001E-3</v>
+        <v>2.2967990000779502E-3</v>
       </c>
       <c r="R46">
-        <v>3.74609375</v>
+        <v>3.8388671875</v>
       </c>
       <c r="S46" cm="1">
         <f t="array" aca="1" ref="S46" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C46,$G46)), ($C46:$G46),0,1)))</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="T46" cm="1">
         <f t="array" aca="1" ref="T46" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C46,$G46)), ($C46:$G46),0,1)))</f>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -4268,60 +4268,60 @@
         <v>771</v>
       </c>
       <c r="C47">
-        <v>1308</v>
+        <v>720</v>
       </c>
       <c r="D47">
-        <v>1468</v>
+        <v>1730</v>
       </c>
       <c r="E47">
-        <v>0.65522305300000006</v>
+        <v>0.5331296559998</v>
       </c>
       <c r="F47">
-        <v>2718.1064453125</v>
+        <v>3463.875</v>
       </c>
       <c r="G47">
-        <v>1188</v>
+        <v>552</v>
       </c>
       <c r="H47">
-        <v>1327</v>
+        <v>1477</v>
       </c>
       <c r="I47">
-        <v>14.97579575</v>
+        <v>9.6969024239999708</v>
       </c>
       <c r="J47">
-        <v>1480.42578125</v>
+        <v>40091.572265625</v>
       </c>
       <c r="K47">
-        <v>1392</v>
+        <v>741</v>
       </c>
       <c r="L47">
-        <v>1524</v>
+        <v>1642</v>
       </c>
       <c r="M47">
-        <v>1.2907723289999999</v>
+        <v>1.25681081199991</v>
       </c>
       <c r="N47">
-        <v>1628.16796875</v>
+        <v>2011.23046875</v>
       </c>
       <c r="O47">
-        <v>1572</v>
+        <v>528</v>
       </c>
       <c r="P47">
-        <v>1789</v>
+        <v>1476</v>
       </c>
       <c r="Q47">
-        <v>4.8388133E-2</v>
+        <v>2.7433467000037098E-2</v>
       </c>
       <c r="R47">
-        <v>27.9423828125</v>
+        <v>29.66015625</v>
       </c>
       <c r="S47" cm="1">
         <f t="array" aca="1" ref="S47" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C47,$G47)), ($C47:$G47),0,1)))</f>
-        <v>1188</v>
+        <v>552</v>
       </c>
       <c r="T47" cm="1">
         <f t="array" aca="1" ref="T47" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C47,$G47)), ($C47:$G47),0,1)))</f>
-        <v>1327</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -4332,60 +4332,60 @@
         <v>16</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>7.7850640000000004E-3</v>
+        <v>6.9191070001579603E-3</v>
       </c>
       <c r="F48">
-        <v>60.6494140625</v>
+        <v>56.8828125</v>
       </c>
       <c r="G48">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H48">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I48">
-        <v>8.6579259999999998E-3</v>
+        <v>6.9216140000207798E-3</v>
       </c>
       <c r="J48">
-        <v>185.1728515625</v>
+        <v>77.75390625</v>
       </c>
       <c r="K48">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>8.5872629999999995E-3</v>
+        <v>6.7869120000523201E-3</v>
       </c>
       <c r="N48">
-        <v>94.8837890625</v>
+        <v>128.7021484375</v>
       </c>
       <c r="O48">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="P48">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q48">
-        <v>1.824134E-3</v>
+        <v>1.6829380001581701E-3</v>
       </c>
       <c r="R48">
-        <v>3.923828125</v>
+        <v>4.005859375</v>
       </c>
       <c r="S48" cm="1">
         <f t="array" aca="1" ref="S48" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C48,$G48)), ($C48:$G48),0,1)))</f>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="T48" cm="1">
         <f t="array" aca="1" ref="T48" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C48,$G48)), ($C48:$G48),0,1)))</f>
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -4396,60 +4396,60 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="D49">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="E49">
-        <v>9.6541208000000003E-2</v>
+        <v>5.4574043999991703E-2</v>
       </c>
       <c r="F49">
-        <v>490.423828125</v>
+        <v>486.32421875</v>
       </c>
       <c r="G49">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="H49">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="I49">
-        <v>2.321564806</v>
+        <v>9.3791556000041895E-2</v>
       </c>
       <c r="J49">
-        <v>3227.1513671875</v>
+        <v>4252.6748046875</v>
       </c>
       <c r="K49">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="L49">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="M49">
-        <v>0.12105010400000001</v>
+        <v>6.3190112000029303E-2</v>
       </c>
       <c r="N49">
-        <v>1148.0234375</v>
+        <v>316.06640625</v>
       </c>
       <c r="O49">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="P49">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="Q49">
-        <v>6.7512379999999997E-3</v>
+        <v>6.8008289999852397E-3</v>
       </c>
       <c r="R49">
-        <v>7.740234375</v>
+        <v>7.7509765625</v>
       </c>
       <c r="S49" cm="1">
         <f t="array" aca="1" ref="S49" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C49,$G49)), ($C49:$G49),0,1)))</f>
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="T49" cm="1">
         <f t="array" aca="1" ref="T49" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C49,$G49)), ($C49:$G49),0,1)))</f>
-        <v>250</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -4460,56 +4460,56 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>8</v>
       </c>
       <c r="E50">
-        <v>2.7036540000000002E-3</v>
+        <v>3.8895650000085802E-3</v>
       </c>
       <c r="F50">
-        <v>20.326171875</v>
+        <v>20.3330078125</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>8</v>
       </c>
       <c r="I50">
-        <v>2.4271380000000001E-3</v>
+        <v>4.3260219999865504E-3</v>
       </c>
       <c r="J50">
-        <v>67.3115234375</v>
+        <v>59.8896484375</v>
       </c>
       <c r="K50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L50">
         <v>8</v>
       </c>
       <c r="M50">
-        <v>2.5204839999999999E-3</v>
+        <v>2.7010189999145898E-3</v>
       </c>
       <c r="N50">
-        <v>70.9287109375</v>
+        <v>63.5302734375</v>
       </c>
       <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="P50">
         <v>8</v>
       </c>
-      <c r="P50">
-        <v>7</v>
-      </c>
       <c r="Q50">
-        <v>1.2958360000000001E-3</v>
+        <v>1.2863540000580501E-3</v>
       </c>
       <c r="R50">
-        <v>3.2392578125</v>
+        <v>3.30078125</v>
       </c>
       <c r="S50" cm="1">
         <f t="array" aca="1" ref="S50" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C50,$G50)), ($C50:$G50),0,1)))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T50" cm="1">
         <f t="array" aca="1" ref="T50" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C50,$G50)), ($C50:$G50),0,1)))</f>
@@ -4524,60 +4524,60 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>5.7802069999999999E-3</v>
+        <v>2.1956590001081999E-3</v>
       </c>
       <c r="F51">
-        <v>41.693359375</v>
+        <v>26.287109375</v>
       </c>
       <c r="G51">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51">
-        <v>5.3217799999999999E-3</v>
+        <v>3.7410649999856101E-3</v>
       </c>
       <c r="J51">
-        <v>73.5341796875</v>
+        <v>131.658203125</v>
       </c>
       <c r="K51">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M51">
-        <v>5.2165919999999999E-3</v>
+        <v>2.7408480000303799E-3</v>
       </c>
       <c r="N51">
-        <v>61.3779296875</v>
+        <v>110.0830078125</v>
       </c>
       <c r="O51">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q51">
-        <v>1.6163130000000001E-3</v>
+        <v>1.54435899980853E-3</v>
       </c>
       <c r="R51">
-        <v>3.572265625</v>
+        <v>3.65625</v>
       </c>
       <c r="S51" cm="1">
         <f t="array" aca="1" ref="S51" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C51,$G51)), ($C51:$G51),0,1)))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T51" cm="1">
         <f t="array" aca="1" ref="T51" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C51,$G51)), ($C51:$G51),0,1)))</f>
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
@@ -4588,60 +4588,60 @@
         <v>38</v>
       </c>
       <c r="C52">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E52">
-        <v>7.9546129999999993E-3</v>
+        <v>2.1200126999929101E-2</v>
       </c>
       <c r="F52">
-        <v>167.55859375</v>
+        <v>127.20703125</v>
       </c>
       <c r="G52">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H52">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I52">
-        <v>8.8821379999999995E-3</v>
+        <v>1.6200814000058E-2</v>
       </c>
       <c r="J52">
-        <v>1982.38671875</v>
+        <v>225.615234375</v>
       </c>
       <c r="K52">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L52">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="M52">
-        <v>9.3657540000000004E-3</v>
+        <v>2.7116709999972899E-2</v>
       </c>
       <c r="N52">
-        <v>208.978515625</v>
+        <v>212.669921875</v>
       </c>
       <c r="O52">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="P52">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Q52">
-        <v>1.5980569999999999E-3</v>
+        <v>2.53431100009038E-3</v>
       </c>
       <c r="R52">
-        <v>4.7158203125</v>
+        <v>4.6728515625</v>
       </c>
       <c r="S52" cm="1">
         <f t="array" aca="1" ref="S52" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C52,$G52)), ($C52:$G52),0,1)))</f>
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="T52" cm="1">
         <f t="array" aca="1" ref="T52" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C52,$G52)), ($C52:$G52),0,1)))</f>
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -4652,60 +4652,60 @@
         <v>86</v>
       </c>
       <c r="C53">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D53">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="E53">
-        <v>3.8381154000000001E-2</v>
+        <v>4.6638161999908299E-2</v>
       </c>
       <c r="F53">
-        <v>328.91015625</v>
+        <v>359.677734375</v>
       </c>
       <c r="G53">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="H53">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="I53">
-        <v>0.22100177600000001</v>
+        <v>8.8685620999967796E-2</v>
       </c>
       <c r="J53">
-        <v>1917.7451171875</v>
+        <v>2593.123046875</v>
       </c>
       <c r="K53">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="L53">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="M53">
-        <v>3.4885620999999999E-2</v>
+        <v>5.0042351999991297E-2</v>
       </c>
       <c r="N53">
-        <v>219.89453125</v>
+        <v>474.1103515625</v>
       </c>
       <c r="O53">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="P53">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Q53">
-        <v>5.6260080000000001E-3</v>
+        <v>5.2683510000406299E-3</v>
       </c>
       <c r="R53">
-        <v>5.97265625</v>
+        <v>6.0361328125</v>
       </c>
       <c r="S53" cm="1">
         <f t="array" aca="1" ref="S53" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C53,$G53)), ($C53:$G53),0,1)))</f>
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="T53" cm="1">
         <f t="array" aca="1" ref="T53" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C53,$G53)), ($C53:$G53),0,1)))</f>
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -4716,56 +4716,56 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D54">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E54">
-        <v>4.1260812000000001E-2</v>
+        <v>4.6210965000000201E-2</v>
       </c>
       <c r="F54">
-        <v>216.9716796875</v>
+        <v>210.8798828125</v>
       </c>
       <c r="G54">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="H54">
         <v>106</v>
       </c>
       <c r="I54">
-        <v>1.22849316</v>
+        <v>2.3635012919999099</v>
       </c>
       <c r="J54">
-        <v>2453.4775390625</v>
+        <v>3256.1484375</v>
       </c>
       <c r="K54">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="L54">
+        <v>108</v>
+      </c>
+      <c r="M54">
+        <v>0.21799801100019001</v>
+      </c>
+      <c r="N54">
+        <v>545.9638671875</v>
+      </c>
+      <c r="O54">
+        <v>69</v>
+      </c>
+      <c r="P54">
         <v>109</v>
       </c>
-      <c r="M54">
-        <v>0.47035927</v>
-      </c>
-      <c r="N54">
-        <v>212.11328125</v>
-      </c>
-      <c r="O54">
-        <v>105</v>
-      </c>
-      <c r="P54">
-        <v>120</v>
-      </c>
       <c r="Q54">
-        <v>4.0716600000000004E-3</v>
+        <v>4.7077290000743198E-3</v>
       </c>
       <c r="R54">
-        <v>5.1806640625</v>
+        <v>5.3046875</v>
       </c>
       <c r="S54" cm="1">
         <f t="array" aca="1" ref="S54" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C54,$G54)), ($C54:$G54),0,1)))</f>
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="T54" cm="1">
         <f t="array" aca="1" ref="T54" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C54,$G54)), ($C54:$G54),0,1)))</f>
@@ -4780,60 +4780,60 @@
         <v>105</v>
       </c>
       <c r="C55">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="D55">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="E55">
-        <v>4.7151143E-2</v>
+        <v>7.0063631999801104E-2</v>
       </c>
       <c r="F55">
-        <v>335.8359375</v>
+        <v>361.623046875</v>
       </c>
       <c r="G55">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="H55">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="I55">
-        <v>1.9501252170000001</v>
+        <v>1.08361901300008</v>
       </c>
       <c r="J55">
-        <v>4200.03515625</v>
+        <v>193.31640625</v>
       </c>
       <c r="K55">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="L55">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="M55">
-        <v>0.150023928</v>
+        <v>0.21698661599998501</v>
       </c>
       <c r="N55">
-        <v>784.7294921875</v>
+        <v>1015.7314453125</v>
       </c>
       <c r="O55">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="P55">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="Q55">
-        <v>1.3678358E-2</v>
+        <v>9.2237579999618902E-3</v>
       </c>
       <c r="R55">
-        <v>6.7216796875</v>
+        <v>7.373046875</v>
       </c>
       <c r="S55" cm="1">
         <f t="array" aca="1" ref="S55" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C55,$G55)), ($C55:$G55),0,1)))</f>
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="T55" cm="1">
         <f t="array" aca="1" ref="T55" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C55,$G55)), ($C55:$G55),0,1)))</f>
-        <v>182</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -4844,60 +4844,60 @@
         <v>24</v>
       </c>
       <c r="C56">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E56">
-        <v>7.0276480000000001E-3</v>
+        <v>1.6407493000087901E-2</v>
       </c>
       <c r="F56">
-        <v>103.71875</v>
+        <v>103.787109375</v>
       </c>
       <c r="G56">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H56">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I56">
-        <v>1.1211557E-2</v>
+        <v>1.22212619999118E-2</v>
       </c>
       <c r="J56">
-        <v>1279.564453125</v>
+        <v>2365.6044921875</v>
       </c>
       <c r="K56">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M56">
-        <v>9.9946289999999997E-3</v>
+        <v>1.24286539999047E-2</v>
       </c>
       <c r="N56">
-        <v>265.623046875</v>
+        <v>228.548828125</v>
       </c>
       <c r="O56">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P56">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q56">
-        <v>1.5211910000000001E-3</v>
+        <v>2.2475410000879401E-3</v>
       </c>
       <c r="R56">
-        <v>4.2548828125</v>
+        <v>4.265625</v>
       </c>
       <c r="S56" cm="1">
         <f t="array" aca="1" ref="S56" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C56,$G56)), ($C56:$G56),0,1)))</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="T56" cm="1">
         <f t="array" aca="1" ref="T56" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C56,$G56)), ($C56:$G56),0,1)))</f>
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -4908,60 +4908,60 @@
         <v>38</v>
       </c>
       <c r="C57">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E57">
-        <v>9.4869459999999996E-3</v>
+        <v>7.8361500000028103E-3</v>
       </c>
       <c r="F57">
-        <v>123.767578125</v>
+        <v>118.09765625</v>
       </c>
       <c r="G57">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I57">
-        <v>1.1044895000000001E-2</v>
+        <v>8.1415480001396593E-3</v>
       </c>
       <c r="J57">
-        <v>608.2490234375</v>
+        <v>146.6171875</v>
       </c>
       <c r="K57">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M57">
-        <v>1.0110845E-2</v>
+        <v>7.5763669999560001E-3</v>
       </c>
       <c r="N57">
-        <v>234.392578125</v>
+        <v>60.35546875</v>
       </c>
       <c r="O57">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q57">
-        <v>1.897934E-3</v>
+        <v>1.6757239998241801E-3</v>
       </c>
       <c r="R57">
-        <v>5.95703125</v>
+        <v>5.640625</v>
       </c>
       <c r="S57" cm="1">
         <f t="array" aca="1" ref="S57" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C57,$G57)), ($C57:$G57),0,1)))</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="T57" cm="1">
         <f t="array" aca="1" ref="T57" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C57,$G57)), ($C57:$G57),0,1)))</f>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -4972,60 +4972,60 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E58">
-        <v>1.0073912000000001E-2</v>
+        <v>3.2679959999768401E-3</v>
       </c>
       <c r="F58">
-        <v>70.5009765625</v>
+        <v>42.82421875</v>
       </c>
       <c r="G58">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I58">
-        <v>1.0927146E-2</v>
+        <v>3.6465609998685899E-3</v>
       </c>
       <c r="J58">
-        <v>72.71484375</v>
+        <v>127.712890625</v>
       </c>
       <c r="K58">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>1.0605534E-2</v>
+        <v>3.4660470000744598E-3</v>
       </c>
       <c r="N58">
-        <v>126.4189453125</v>
+        <v>115.767578125</v>
       </c>
       <c r="O58">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Q58">
-        <v>2.2800339999999998E-3</v>
+        <v>1.3488130000496299E-3</v>
       </c>
       <c r="R58">
-        <v>3.98828125</v>
+        <v>3.8330078125</v>
       </c>
       <c r="S58" cm="1">
         <f t="array" aca="1" ref="S58" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C58,$G58)), ($C58:$G58),0,1)))</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T58" cm="1">
         <f t="array" aca="1" ref="T58" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C58,$G58)), ($C58:$G58),0,1)))</f>
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
@@ -5036,60 +5036,60 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="D59">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E59">
-        <v>3.9643613000000001E-2</v>
+        <v>2.8587889999926099E-2</v>
       </c>
       <c r="F59">
-        <v>253.50390625</v>
+        <v>238.05078125</v>
       </c>
       <c r="G59">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H59">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="I59">
-        <v>0.244171833</v>
+        <v>4.2473498999925099E-2</v>
       </c>
       <c r="J59">
-        <v>2449.671875</v>
+        <v>2253.609375</v>
       </c>
       <c r="K59">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="L59">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="M59">
-        <v>2.9877166E-2</v>
+        <v>3.7763215000040803E-2</v>
       </c>
       <c r="N59">
-        <v>230.65234375</v>
+        <v>537.7294921875</v>
       </c>
       <c r="O59">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="P59">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q59">
-        <v>4.0145850000000002E-3</v>
+        <v>3.9015840000047302E-3</v>
       </c>
       <c r="R59">
-        <v>5.947265625</v>
+        <v>5.755859375</v>
       </c>
       <c r="S59" cm="1">
         <f t="array" aca="1" ref="S59" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C59,$G59)), ($C59:$G59),0,1)))</f>
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="T59" cm="1">
         <f t="array" aca="1" ref="T59" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C59,$G59)), ($C59:$G59),0,1)))</f>
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -5100,60 +5100,60 @@
         <v>79</v>
       </c>
       <c r="C60">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="D60">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="E60">
-        <v>3.010531E-2</v>
+        <v>4.3043673000056501E-2</v>
       </c>
       <c r="F60">
-        <v>259.7802734375</v>
+        <v>312.9775390625</v>
       </c>
       <c r="G60">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="H60">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I60">
-        <v>0.364910293</v>
+        <v>8.3343656999886606E-2</v>
       </c>
       <c r="J60">
-        <v>218.13671875</v>
+        <v>1881.23046875</v>
       </c>
       <c r="K60">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="L60">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="M60">
-        <v>0.13415028200000001</v>
+        <v>5.24135879998084E-2</v>
       </c>
       <c r="N60">
-        <v>206.39453125</v>
+        <v>771.4765625</v>
       </c>
       <c r="O60">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="P60">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q60">
-        <v>5.5504400000000002E-3</v>
+        <v>4.9816990001545396E-3</v>
       </c>
       <c r="R60">
-        <v>5.9892578125</v>
+        <v>6.2802734375</v>
       </c>
       <c r="S60" cm="1">
         <f t="array" aca="1" ref="S60" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C60,$G60)), ($C60:$G60),0,1)))</f>
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="T60" cm="1">
         <f t="array" aca="1" ref="T60" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C60,$G60)), ($C60:$G60),0,1)))</f>
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -5164,60 +5164,60 @@
         <v>152</v>
       </c>
       <c r="C61">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="D61">
-        <v>248</v>
+        <v>356</v>
       </c>
       <c r="E61">
-        <v>6.4016925000000002E-2</v>
+        <v>9.9098176000097696E-2</v>
       </c>
       <c r="F61">
-        <v>516.7568359375</v>
+        <v>512.6650390625</v>
       </c>
       <c r="G61">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="H61">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I61">
-        <v>6.6493776000000004E-2</v>
+        <v>0.82290076100002796</v>
       </c>
       <c r="J61">
-        <v>7121.9228515625</v>
+        <v>2025.658203125</v>
       </c>
       <c r="K61">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="L61">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="M61">
-        <v>6.3623583999999997E-2</v>
+        <v>0.13125014199999799</v>
       </c>
       <c r="N61">
-        <v>1031.193359375</v>
+        <v>861.5078125</v>
       </c>
       <c r="O61">
-        <v>323</v>
+        <v>138</v>
       </c>
       <c r="P61">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="Q61">
-        <v>1.6534444999999998E-2</v>
+        <v>8.6514069998884207E-3</v>
       </c>
       <c r="R61">
-        <v>8.603515625</v>
+        <v>9.396484375</v>
       </c>
       <c r="S61" cm="1">
         <f t="array" aca="1" ref="S61" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C61,$G61)), ($C61:$G61),0,1)))</f>
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="T61" cm="1">
         <f t="array" aca="1" ref="T61" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C61,$G61)), ($C61:$G61),0,1)))</f>
-        <v>248</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
@@ -5228,60 +5228,60 @@
         <v>107</v>
       </c>
       <c r="C62">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D62">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E62">
-        <v>3.4714794E-2</v>
+        <v>3.9212353000039002E-2</v>
       </c>
       <c r="F62">
-        <v>438.0361328125</v>
+        <v>395.015625</v>
       </c>
       <c r="G62">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="I62">
-        <v>0.53480583000000004</v>
+        <v>6.1264695999852799E-2</v>
       </c>
       <c r="J62">
-        <v>1675.0322265625</v>
+        <v>3688.5439453125</v>
       </c>
       <c r="K62">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="L62">
+        <v>187</v>
+      </c>
+      <c r="M62">
+        <v>4.9522658000114399E-2</v>
+      </c>
+      <c r="N62">
+        <v>323.44140625</v>
+      </c>
+      <c r="O62">
+        <v>42</v>
+      </c>
+      <c r="P62">
         <v>181</v>
       </c>
-      <c r="M62">
-        <v>5.2729918000000001E-2</v>
-      </c>
-      <c r="N62">
-        <v>740.6943359375</v>
-      </c>
-      <c r="O62">
-        <v>134</v>
-      </c>
-      <c r="P62">
-        <v>165</v>
-      </c>
       <c r="Q62">
-        <v>3.8134739999999999E-3</v>
+        <v>4.1104800000084599E-3</v>
       </c>
       <c r="R62">
-        <v>6.7470703125</v>
+        <v>6.5537109375</v>
       </c>
       <c r="S62" cm="1">
         <f t="array" aca="1" ref="S62" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C62,$G62)), ($C62:$G62),0,1)))</f>
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="T62" cm="1">
         <f t="array" aca="1" ref="T62" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C62,$G62)), ($C62:$G62),0,1)))</f>
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -5292,60 +5292,60 @@
         <v>31</v>
       </c>
       <c r="C63">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E63">
-        <v>1.4403634E-2</v>
+        <v>1.2526273000048599E-2</v>
       </c>
       <c r="F63">
-        <v>148.8984375</v>
+        <v>104.455078125</v>
       </c>
       <c r="G63">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="H63">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I63">
-        <v>0.110456865</v>
+        <v>2.17576079999162E-2</v>
       </c>
       <c r="J63">
-        <v>256.0595703125</v>
+        <v>195.5</v>
       </c>
       <c r="K63">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="L63">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M63">
-        <v>1.9092556E-2</v>
+        <v>1.49934329999723E-2</v>
       </c>
       <c r="N63">
-        <v>248.2470703125</v>
+        <v>184.890625</v>
       </c>
       <c r="O63">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="P63">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q63">
-        <v>2.546483E-3</v>
+        <v>3.5918619998938001E-3</v>
       </c>
       <c r="R63">
-        <v>4.419921875</v>
+        <v>4.435546875</v>
       </c>
       <c r="S63" cm="1">
         <f t="array" aca="1" ref="S63" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C63,$G63)), ($C63:$G63),0,1)))</f>
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="T63" cm="1">
         <f t="array" aca="1" ref="T63" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C63,$G63)), ($C63:$G63),0,1)))</f>
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -5356,60 +5356,60 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>4.9901040000000004E-3</v>
+        <v>2.291452999998E-3</v>
       </c>
       <c r="F64">
-        <v>37.2900390625</v>
+        <v>25.3916015625</v>
       </c>
       <c r="G64">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>7.5540030000000001E-3</v>
+        <v>2.2623369998200299E-3</v>
       </c>
       <c r="J64">
-        <v>74.302734375</v>
+        <v>67.5908203125</v>
       </c>
       <c r="K64">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M64">
-        <v>8.4821600000000007E-3</v>
+        <v>2.4030800000218698E-3</v>
       </c>
       <c r="N64">
-        <v>63.583984375</v>
+        <v>57.0068359375</v>
       </c>
       <c r="O64">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P64">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q64">
-        <v>1.59359E-3</v>
+        <v>1.9488099999307399E-3</v>
       </c>
       <c r="R64">
-        <v>3.4873046875</v>
+        <v>3.5458984375</v>
       </c>
       <c r="S64" cm="1">
         <f t="array" aca="1" ref="S64" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C64,$G64)), ($C64:$G64),0,1)))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T64" cm="1">
         <f t="array" aca="1" ref="T64" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C64,$G64)), ($C64:$G64),0,1)))</f>
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -5420,60 +5420,60 @@
         <v>23</v>
       </c>
       <c r="C65">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E65">
-        <v>1.2820823E-2</v>
+        <v>5.0818669999443903E-3</v>
       </c>
       <c r="F65">
-        <v>108.9248046875</v>
+        <v>101.5654296875</v>
       </c>
       <c r="G65">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I65">
-        <v>0.16726016899999999</v>
+        <v>4.4754939999620503E-3</v>
       </c>
       <c r="J65">
-        <v>293.02734375</v>
+        <v>950.6962890625</v>
       </c>
       <c r="K65">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>1.5407440999999999E-2</v>
+        <v>5.0019319999137198E-3</v>
       </c>
       <c r="N65">
-        <v>189.0849609375</v>
+        <v>217.09375</v>
       </c>
       <c r="O65">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="Q65">
-        <v>2.1386489999999998E-3</v>
+        <v>1.6196609999497001E-3</v>
       </c>
       <c r="R65">
-        <v>4.2041015625</v>
+        <v>4.123046875</v>
       </c>
       <c r="S65" cm="1">
         <f t="array" aca="1" ref="S65" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C65,$G65)), ($C65:$G65),0,1)))</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="T65" cm="1">
         <f t="array" aca="1" ref="T65" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C65,$G65)), ($C65:$G65),0,1)))</f>
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -5484,56 +5484,56 @@
         <v>90</v>
       </c>
       <c r="C66">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>70</v>
       </c>
       <c r="E66">
-        <v>2.8570656999999999E-2</v>
+        <v>2.7578467000012E-2</v>
       </c>
       <c r="F66">
-        <v>498.630859375</v>
+        <v>545.5595703125</v>
       </c>
       <c r="G66">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>70</v>
       </c>
       <c r="I66">
-        <v>2.7766281E-2</v>
+        <v>3.04528619999473E-2</v>
       </c>
       <c r="J66">
-        <v>520.814453125</v>
+        <v>4181.4326171875</v>
       </c>
       <c r="K66">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>70</v>
       </c>
       <c r="M66">
-        <v>2.6935582999999999E-2</v>
+        <v>3.4019026000123603E-2</v>
       </c>
       <c r="N66">
-        <v>515.291015625</v>
+        <v>740.830078125</v>
       </c>
       <c r="O66">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>70</v>
       </c>
       <c r="Q66">
-        <v>3.842434E-3</v>
+        <v>4.1949279998334497E-3</v>
       </c>
       <c r="R66">
-        <v>9.650390625</v>
+        <v>9.9580078125</v>
       </c>
       <c r="S66" cm="1">
         <f t="array" aca="1" ref="S66" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C66,$G66)), ($C66:$G66),0,1)))</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="T66" cm="1">
         <f t="array" aca="1" ref="T66" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C66,$G66)), ($C66:$G66),0,1)))</f>
@@ -5548,60 +5548,60 @@
         <v>16</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E67">
-        <v>5.443097E-3</v>
+        <v>8.6178399999425892E-3</v>
       </c>
       <c r="F67">
-        <v>76.2890625</v>
+        <v>60.640625</v>
       </c>
       <c r="G67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H67">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I67">
-        <v>5.1395640000000001E-3</v>
+        <v>1.01347049999276E-2</v>
       </c>
       <c r="J67">
-        <v>162.3837890625</v>
+        <v>139.71875</v>
       </c>
       <c r="K67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M67">
-        <v>5.4237729999999998E-3</v>
+        <v>1.0092930000155299E-2</v>
       </c>
       <c r="N67">
-        <v>154.8916015625</v>
+        <v>97.869140625</v>
       </c>
       <c r="O67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P67">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Q67">
-        <v>1.352252E-3</v>
+        <v>2.2440220000135001E-3</v>
       </c>
       <c r="R67">
-        <v>3.9833984375</v>
+        <v>3.9560546875</v>
       </c>
       <c r="S67" cm="1">
         <f t="array" aca="1" ref="S67" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C67,$G67)), ($C67:$G67),0,1)))</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="T67" cm="1">
         <f t="array" aca="1" ref="T67" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C67,$G67)), ($C67:$G67),0,1)))</f>
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
@@ -5612,60 +5612,60 @@
         <v>119</v>
       </c>
       <c r="C68">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="D68">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="E68">
-        <v>4.5195753999999998E-2</v>
+        <v>7.8589914000076505E-2</v>
       </c>
       <c r="F68">
-        <v>495.5869140625</v>
+        <v>530.44921875</v>
       </c>
       <c r="G68">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="H68">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="I68">
-        <v>0.18057802000000001</v>
+        <v>0.56106676499984998</v>
       </c>
       <c r="J68">
-        <v>3707.6455078125</v>
+        <v>4579.107421875</v>
       </c>
       <c r="K68">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="L68">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="M68">
-        <v>0.15385958599999999</v>
+        <v>0.114868637000199</v>
       </c>
       <c r="N68">
-        <v>307.24609375</v>
+        <v>418.798828125</v>
       </c>
       <c r="O68">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="P68">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="Q68">
-        <v>4.4550060000000001E-3</v>
+        <v>8.1549070000619395E-3</v>
       </c>
       <c r="R68">
-        <v>7.6044921875</v>
+        <v>7.8349609375</v>
       </c>
       <c r="S68" cm="1">
         <f t="array" aca="1" ref="S68" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C68,$G68)), ($C68:$G68),0,1)))</f>
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="T68" cm="1">
         <f t="array" aca="1" ref="T68" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C68,$G68)), ($C68:$G68),0,1)))</f>
-        <v>193</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -5676,60 +5676,60 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E69">
-        <v>3.92523E-3</v>
+        <v>5.7032749998597804E-3</v>
       </c>
       <c r="F69">
-        <v>28.4873046875</v>
+        <v>28.4775390625</v>
       </c>
       <c r="G69">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H69">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I69">
-        <v>1.548604E-2</v>
+        <v>9.6417439999640902E-3</v>
       </c>
       <c r="J69">
-        <v>34.9287109375</v>
+        <v>116.65234375</v>
       </c>
       <c r="K69">
+        <v>9</v>
+      </c>
+      <c r="L69">
         <v>23</v>
       </c>
-      <c r="L69">
-        <v>26</v>
-      </c>
       <c r="M69">
-        <v>1.1157960999999999E-2</v>
+        <v>9.5883850001428003E-3</v>
       </c>
       <c r="N69">
-        <v>33.8193359375</v>
+        <v>108.328125</v>
       </c>
       <c r="O69">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P69">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q69">
-        <v>1.1941230000000001E-3</v>
+        <v>1.69059499989998E-3</v>
       </c>
       <c r="R69">
-        <v>3.578125</v>
+        <v>4.06640625</v>
       </c>
       <c r="S69" cm="1">
         <f t="array" aca="1" ref="S69" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C69,$G69)), ($C69:$G69),0,1)))</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T69" cm="1">
         <f t="array" aca="1" ref="T69" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C69,$G69)), ($C69:$G69),0,1)))</f>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -5740,60 +5740,60 @@
         <v>112</v>
       </c>
       <c r="C70">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="D70">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="E70">
-        <v>4.2612683999999998E-2</v>
+        <v>5.9243441000035001E-2</v>
       </c>
       <c r="F70">
-        <v>399.7529296875</v>
+        <v>400.046875</v>
       </c>
       <c r="G70">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="H70">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I70">
-        <v>0.68801993400000006</v>
+        <v>1.45114694800008</v>
       </c>
       <c r="J70">
-        <v>6199.4541015625</v>
+        <v>2523.1064453125</v>
       </c>
       <c r="K70">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="L70">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M70">
-        <v>5.8027757999999999E-2</v>
+        <v>5.9175429000106299E-2</v>
       </c>
       <c r="N70">
-        <v>800.087890625</v>
+        <v>357.20703125</v>
       </c>
       <c r="O70">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="P70">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="Q70">
-        <v>7.6830029999999999E-3</v>
+        <v>4.66252399996847E-3</v>
       </c>
       <c r="R70">
-        <v>7.3515625</v>
+        <v>7.455078125</v>
       </c>
       <c r="S70" cm="1">
         <f t="array" aca="1" ref="S70" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C70,$G70)), ($C70:$G70),0,1)))</f>
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="T70" cm="1">
         <f t="array" aca="1" ref="T70" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C70,$G70)), ($C70:$G70),0,1)))</f>
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -5804,60 +5804,60 @@
         <v>17</v>
       </c>
       <c r="C71">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D71">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E71">
-        <v>9.9485100000000007E-3</v>
+        <v>7.54096700006812E-3</v>
       </c>
       <c r="F71">
-        <v>62.884765625</v>
+        <v>67.138671875</v>
       </c>
       <c r="G71">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H71">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I71">
-        <v>4.0961048999999999E-2</v>
+        <v>7.3184729999411502E-3</v>
       </c>
       <c r="J71">
-        <v>221.71484375</v>
+        <v>986.4990234375</v>
       </c>
       <c r="K71">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L71">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M71">
-        <v>1.6479606000000001E-2</v>
+        <v>9.1346709998560895E-3</v>
       </c>
       <c r="N71">
-        <v>98.9638671875</v>
+        <v>189.2294921875</v>
       </c>
       <c r="O71">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="P71">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q71">
-        <v>1.627269E-3</v>
+        <v>1.9089460001850899E-3</v>
       </c>
       <c r="R71">
-        <v>3.9755859375</v>
+        <v>3.8857421875</v>
       </c>
       <c r="S71" cm="1">
         <f t="array" aca="1" ref="S71" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C71,$G71)), ($C71:$G71),0,1)))</f>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="T71" cm="1">
         <f t="array" aca="1" ref="T71" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C71,$G71)), ($C71:$G71),0,1)))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -5868,60 +5868,60 @@
         <v>116</v>
       </c>
       <c r="C72">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="D72">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="E72">
-        <v>4.4399912999999999E-2</v>
+        <v>6.7727925999861299E-2</v>
       </c>
       <c r="F72">
-        <v>406.4765625</v>
+        <v>342.9033203125</v>
       </c>
       <c r="G72">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="H72">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="I72">
-        <v>1.101003599</v>
+        <v>1.49950682199983</v>
       </c>
       <c r="J72">
-        <v>3562.759765625</v>
+        <v>316.23046875</v>
       </c>
       <c r="K72">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="L72">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M72">
-        <v>5.5263923999999999E-2</v>
+        <v>0.15695365800002001</v>
       </c>
       <c r="N72">
-        <v>211.42578125</v>
+        <v>368.30859375</v>
       </c>
       <c r="O72">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="P72">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="Q72">
-        <v>5.8167640000000003E-3</v>
+        <v>5.6729860000359596E-3</v>
       </c>
       <c r="R72">
-        <v>6.828125</v>
+        <v>6.87109375</v>
       </c>
       <c r="S72" cm="1">
         <f t="array" aca="1" ref="S72" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C72,$G72)), ($C72:$G72),0,1)))</f>
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="T72" cm="1">
         <f t="array" aca="1" ref="T72" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C72,$G72)), ($C72:$G72),0,1)))</f>
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -5932,60 +5932,60 @@
         <v>18</v>
       </c>
       <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>37</v>
+      </c>
+      <c r="E73">
+        <v>8.6443699999563198E-3</v>
+      </c>
+      <c r="F73">
+        <v>71.9130859375</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+      <c r="H73">
         <v>27</v>
       </c>
-      <c r="D73">
-        <v>31</v>
-      </c>
-      <c r="E73">
-        <v>7.4439789999999999E-3</v>
-      </c>
-      <c r="F73">
-        <v>66.8740234375</v>
-      </c>
-      <c r="G73">
+      <c r="I73">
+        <v>1.0970117999931899E-2</v>
+      </c>
+      <c r="J73">
+        <v>272.1826171875</v>
+      </c>
+      <c r="K73">
+        <v>6</v>
+      </c>
+      <c r="L73">
         <v>27</v>
       </c>
-      <c r="H73">
-        <v>31</v>
-      </c>
-      <c r="I73">
-        <v>4.6439041E-2</v>
-      </c>
-      <c r="J73">
-        <v>159.875</v>
-      </c>
-      <c r="K73">
-        <v>27</v>
-      </c>
-      <c r="L73">
-        <v>31</v>
-      </c>
       <c r="M73">
-        <v>8.7165249999999993E-3</v>
+        <v>8.8724918000025299E-2</v>
       </c>
       <c r="N73">
-        <v>51.46484375</v>
+        <v>173.8623046875</v>
       </c>
       <c r="O73">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="P73">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q73">
-        <v>1.716731E-3</v>
+        <v>1.67127999998228E-3</v>
       </c>
       <c r="R73">
-        <v>4.0146484375</v>
+        <v>3.908203125</v>
       </c>
       <c r="S73" cm="1">
         <f t="array" aca="1" ref="S73" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C73,$G73)), ($C73:$G73),0,1)))</f>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="T73" cm="1">
         <f t="array" aca="1" ref="T73" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C73,$G73)), ($C73:$G73),0,1)))</f>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -5996,60 +5996,60 @@
         <v>32</v>
       </c>
       <c r="C74">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E74">
-        <v>1.9716111000000001E-2</v>
+        <v>1.43225929998607E-2</v>
       </c>
       <c r="F74">
-        <v>137.568359375</v>
+        <v>117.060546875</v>
       </c>
       <c r="G74">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="H74">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I74">
-        <v>6.2632389999999996E-2</v>
+        <v>2.1581595000043301E-2</v>
       </c>
       <c r="J74">
-        <v>504.876953125</v>
+        <v>1160.2529296875</v>
       </c>
       <c r="K74">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="L74">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="M74">
-        <v>2.9189847000000001E-2</v>
+        <v>1.63215970001147E-2</v>
       </c>
       <c r="N74">
-        <v>316.5537109375</v>
+        <v>120.08984375</v>
       </c>
       <c r="O74">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="P74">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="Q74">
-        <v>3.7360190000000001E-3</v>
+        <v>2.1053749999282402E-3</v>
       </c>
       <c r="R74">
-        <v>4.5439453125</v>
+        <v>4.6513671875</v>
       </c>
       <c r="S74" cm="1">
         <f t="array" aca="1" ref="S74" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C74,$G74)), ($C74:$G74),0,1)))</f>
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="T74" cm="1">
         <f t="array" aca="1" ref="T74" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C74,$G74)), ($C74:$G74),0,1)))</f>
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
@@ -6060,60 +6060,60 @@
         <v>336</v>
       </c>
       <c r="C75">
-        <v>573</v>
+        <v>387</v>
       </c>
       <c r="D75">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="E75">
-        <v>0.18153929699999999</v>
+        <v>0.248267207000026</v>
       </c>
       <c r="F75">
-        <v>1168.8408203125</v>
+        <v>1349.888671875</v>
       </c>
       <c r="G75">
-        <v>465</v>
+        <v>90</v>
       </c>
       <c r="H75">
-        <v>541</v>
+        <v>487</v>
       </c>
       <c r="I75">
-        <v>3.6476831600000001</v>
+        <v>1.5776494499998499</v>
       </c>
       <c r="J75">
-        <v>25937.09765625</v>
+        <v>6835.4287109375</v>
       </c>
       <c r="K75">
-        <v>534</v>
+        <v>144</v>
       </c>
       <c r="L75">
-        <v>627</v>
+        <v>562</v>
       </c>
       <c r="M75">
-        <v>0.49022826899999999</v>
+        <v>0.29839563399991598</v>
       </c>
       <c r="N75">
-        <v>1494.3154296875</v>
+        <v>2473.08203125</v>
       </c>
       <c r="O75">
-        <v>756</v>
+        <v>303</v>
       </c>
       <c r="P75">
-        <v>850</v>
+        <v>722</v>
       </c>
       <c r="Q75">
-        <v>2.8377915E-2</v>
+        <v>1.6249741999899901E-2</v>
       </c>
       <c r="R75">
-        <v>14.6416015625</v>
+        <v>14.646484375</v>
       </c>
       <c r="S75" cm="1">
         <f t="array" aca="1" ref="S75" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C75,$G75)), ($C75:$G75),0,1)))</f>
-        <v>465</v>
+        <v>90</v>
       </c>
       <c r="T75" cm="1">
         <f t="array" aca="1" ref="T75" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C75,$G75)), ($C75:$G75),0,1)))</f>
-        <v>541</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
@@ -6124,60 +6124,60 @@
         <v>31</v>
       </c>
       <c r="C76">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E76">
-        <v>1.6465225999999999E-2</v>
+        <v>1.17467940001461E-2</v>
       </c>
       <c r="F76">
-        <v>114.015625</v>
+        <v>132.7099609375</v>
       </c>
       <c r="G76">
+        <v>9</v>
+      </c>
+      <c r="H76">
+        <v>51</v>
+      </c>
+      <c r="I76">
+        <v>1.3519938999934301E-2</v>
+      </c>
+      <c r="J76">
+        <v>1156.9765625</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>51</v>
+      </c>
+      <c r="M76">
+        <v>1.14749839999603E-2</v>
+      </c>
+      <c r="N76">
+        <v>266.330078125</v>
+      </c>
+      <c r="O76">
+        <v>9</v>
+      </c>
+      <c r="P76">
         <v>52</v>
       </c>
-      <c r="H76">
-        <v>62</v>
-      </c>
-      <c r="I76">
-        <v>9.8375894000000005E-2</v>
-      </c>
-      <c r="J76">
-        <v>438.775390625</v>
-      </c>
-      <c r="K76">
-        <v>58</v>
-      </c>
-      <c r="L76">
-        <v>71</v>
-      </c>
-      <c r="M76">
-        <v>3.0202712E-2</v>
-      </c>
-      <c r="N76">
-        <v>252.3125</v>
-      </c>
-      <c r="O76">
-        <v>52</v>
-      </c>
-      <c r="P76">
-        <v>64</v>
-      </c>
       <c r="Q76">
-        <v>2.5090500000000001E-3</v>
+        <v>2.5329509999210101E-3</v>
       </c>
       <c r="R76">
-        <v>4.3974609375</v>
+        <v>4.5146484375</v>
       </c>
       <c r="S76" cm="1">
         <f t="array" aca="1" ref="S76" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C76,$G76)), ($C76:$G76),0,1)))</f>
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="T76" cm="1">
         <f t="array" aca="1" ref="T76" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C76,$G76)), ($C76:$G76),0,1)))</f>
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
@@ -6188,60 +6188,60 @@
         <v>267</v>
       </c>
       <c r="C77">
-        <v>519</v>
+        <v>327</v>
       </c>
       <c r="D77">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="E77">
-        <v>0.184568818</v>
+        <v>0.19370061399990801</v>
       </c>
       <c r="F77">
-        <v>888.1591796875</v>
+        <v>958.140625</v>
       </c>
       <c r="G77">
-        <v>420</v>
+        <v>195</v>
       </c>
       <c r="H77">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="I77">
-        <v>6.8581722870000004</v>
+        <v>2.6592588930000098</v>
       </c>
       <c r="J77">
-        <v>15508.2978515625</v>
+        <v>18637.359375</v>
       </c>
       <c r="K77">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="L77">
-        <v>488</v>
+        <v>639</v>
       </c>
       <c r="M77">
-        <v>0.25092182800000001</v>
+        <v>0.31955380699991998</v>
       </c>
       <c r="N77">
-        <v>637.80859375</v>
+        <v>1985.02734375</v>
       </c>
       <c r="O77">
-        <v>525</v>
+        <v>225</v>
       </c>
       <c r="P77">
-        <v>618</v>
+        <v>563</v>
       </c>
       <c r="Q77">
-        <v>1.5871982999999999E-2</v>
+        <v>1.7012993999969601E-2</v>
       </c>
       <c r="R77">
-        <v>12.42578125</v>
+        <v>13.078125</v>
       </c>
       <c r="S77" cm="1">
         <f t="array" aca="1" ref="S77" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C77,$G77)), ($C77:$G77),0,1)))</f>
-        <v>420</v>
+        <v>195</v>
       </c>
       <c r="T77" cm="1">
         <f t="array" aca="1" ref="T77" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C77,$G77)), ($C77:$G77),0,1)))</f>
-        <v>489</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
@@ -6252,60 +6252,60 @@
         <v>598</v>
       </c>
       <c r="C78">
-        <v>1123</v>
+        <v>612</v>
       </c>
       <c r="D78">
-        <v>1306</v>
+        <v>1390</v>
       </c>
       <c r="E78">
-        <v>0.46487474000000001</v>
+        <v>0.36455735599997702</v>
       </c>
       <c r="F78">
-        <v>2091.310546875</v>
+        <v>2269.59765625</v>
       </c>
       <c r="G78">
-        <v>940</v>
+        <v>456</v>
       </c>
       <c r="H78">
-        <v>1088</v>
+        <v>1197</v>
       </c>
       <c r="I78">
-        <v>5.7151984970000003</v>
+        <v>6.1037017959999904</v>
       </c>
       <c r="J78">
-        <v>1388.85546875</v>
+        <v>31530.125</v>
       </c>
       <c r="K78">
-        <v>1069</v>
+        <v>633</v>
       </c>
       <c r="L78">
-        <v>1235</v>
+        <v>1428</v>
       </c>
       <c r="M78">
-        <v>0.91572423700000005</v>
+        <v>0.47332388699987799</v>
       </c>
       <c r="N78">
-        <v>4021.2861328125</v>
+        <v>4775.2890625</v>
       </c>
       <c r="O78">
-        <v>1093</v>
+        <v>549</v>
       </c>
       <c r="P78">
-        <v>1255</v>
+        <v>1341</v>
       </c>
       <c r="Q78">
-        <v>3.7963327999999998E-2</v>
+        <v>3.2411033000016597E-2</v>
       </c>
       <c r="R78">
-        <v>24.4951171875</v>
+        <v>23.947265625</v>
       </c>
       <c r="S78" cm="1">
         <f t="array" aca="1" ref="S78" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C78,$G78)), ($C78:$G78),0,1)))</f>
-        <v>940</v>
+        <v>456</v>
       </c>
       <c r="T78" cm="1">
         <f t="array" aca="1" ref="T78" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C78,$G78)), ($C78:$G78),0,1)))</f>
-        <v>1088</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -6316,60 +6316,60 @@
         <v>149</v>
       </c>
       <c r="C79">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="D79">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E79">
-        <v>6.9126155999999994E-2</v>
+        <v>6.8688222999980994E-2</v>
       </c>
       <c r="F79">
-        <v>525.4345703125</v>
+        <v>452.9892578125</v>
       </c>
       <c r="G79">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="H79">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I79">
-        <v>1.494178622</v>
+        <v>0.48235181099994401</v>
       </c>
       <c r="J79">
-        <v>6450.3046875</v>
+        <v>3237.8330078125</v>
       </c>
       <c r="K79">
+        <v>84</v>
+      </c>
+      <c r="L79">
+        <v>273</v>
+      </c>
+      <c r="M79">
+        <v>8.8639994000004593E-2</v>
+      </c>
+      <c r="N79">
+        <v>486.5302734375</v>
+      </c>
+      <c r="O79">
+        <v>105</v>
+      </c>
+      <c r="P79">
         <v>308</v>
       </c>
-      <c r="L79">
-        <v>331</v>
-      </c>
-      <c r="M79">
-        <v>0.12982454500000001</v>
-      </c>
-      <c r="N79">
-        <v>933.435546875</v>
-      </c>
-      <c r="O79">
-        <v>290</v>
-      </c>
-      <c r="P79">
-        <v>332</v>
-      </c>
       <c r="Q79">
-        <v>8.9215549999999994E-3</v>
+        <v>6.8910030001916303E-3</v>
       </c>
       <c r="R79">
-        <v>7.734375</v>
+        <v>8.22265625</v>
       </c>
       <c r="S79" cm="1">
         <f t="array" aca="1" ref="S79" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C79,$G79)), ($C79:$G79),0,1)))</f>
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="T79" cm="1">
         <f t="array" aca="1" ref="T79" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C79,$G79)), ($C79:$G79),0,1)))</f>
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -6380,60 +6380,60 @@
         <v>134</v>
       </c>
       <c r="C80">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="D80">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="E80">
-        <v>7.0967507999999999E-2</v>
+        <v>9.1807480000170402E-2</v>
       </c>
       <c r="F80">
-        <v>520.26953125</v>
+        <v>515.5908203125</v>
       </c>
       <c r="G80">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="H80">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I80">
-        <v>6.3431820859999997</v>
+        <v>1.8467504549998901</v>
       </c>
       <c r="J80">
-        <v>3267.6416015625</v>
+        <v>5972.8837890625</v>
       </c>
       <c r="K80">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="L80">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M80">
-        <v>0.44196092399999998</v>
+        <v>8.1333960000165406E-2</v>
       </c>
       <c r="N80">
-        <v>585.2919921875</v>
+        <v>1070.380859375</v>
       </c>
       <c r="O80">
-        <v>254</v>
+        <v>105</v>
       </c>
       <c r="P80">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q80">
-        <v>1.1930013999999999E-2</v>
+        <v>8.0599980001352291E-3</v>
       </c>
       <c r="R80">
-        <v>8.138671875</v>
+        <v>7.740234375</v>
       </c>
       <c r="S80" cm="1">
         <f t="array" aca="1" ref="S80" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C80,$G80)), ($C80:$G80),0,1)))</f>
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="T80" cm="1">
         <f t="array" aca="1" ref="T80" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C80,$G80)), ($C80:$G80),0,1)))</f>
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -6444,60 +6444,60 @@
         <v>36</v>
       </c>
       <c r="C81">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E81">
-        <v>3.6147564E-2</v>
+        <v>1.40234550001423E-2</v>
       </c>
       <c r="F81">
-        <v>151.724609375</v>
+        <v>110.58984375</v>
       </c>
       <c r="G81">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="H81">
         <v>68</v>
       </c>
       <c r="I81">
-        <v>0.22191750800000001</v>
+        <v>8.8051782000093198E-2</v>
       </c>
       <c r="J81">
-        <v>121.11328125</v>
+        <v>1565.5625</v>
       </c>
       <c r="K81">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="L81">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M81">
-        <v>3.1346264999999998E-2</v>
+        <v>1.7357025999899599E-2</v>
       </c>
       <c r="N81">
-        <v>285.669921875</v>
+        <v>238.3310546875</v>
       </c>
       <c r="O81">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="P81">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q81">
-        <v>7.2606099999999998E-3</v>
+        <v>2.3205620000226099E-3</v>
       </c>
       <c r="R81">
-        <v>4.703125</v>
+        <v>4.59375</v>
       </c>
       <c r="S81" cm="1">
         <f t="array" aca="1" ref="S81" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C81,$G81)), ($C81:$G81),0,1)))</f>
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="T81" cm="1">
         <f t="array" aca="1" ref="T81" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C81,$G81)), ($C81:$G81),0,1)))</f>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -6508,60 +6508,60 @@
         <v>532</v>
       </c>
       <c r="C82">
-        <v>994</v>
+        <v>390</v>
       </c>
       <c r="D82">
-        <v>1148</v>
+        <v>1067</v>
       </c>
       <c r="E82">
-        <v>0.46103944800000002</v>
+        <v>0.34582272099987599</v>
       </c>
       <c r="F82">
-        <v>1881.021484375</v>
+        <v>1731.7451171875</v>
       </c>
       <c r="G82">
-        <v>874</v>
+        <v>291</v>
       </c>
       <c r="H82">
-        <v>1015</v>
+        <v>954</v>
       </c>
       <c r="I82">
-        <v>14.28686607</v>
+        <v>7.2168078180000004</v>
       </c>
       <c r="J82">
-        <v>1364.13671875</v>
+        <v>28622.5810546875</v>
       </c>
       <c r="K82">
-        <v>1018</v>
+        <v>432</v>
       </c>
       <c r="L82">
-        <v>1154</v>
+        <v>1116</v>
       </c>
       <c r="M82">
-        <v>1.01398145</v>
+        <v>0.90125629799990703</v>
       </c>
       <c r="N82">
-        <v>1618.42578125</v>
+        <v>3150.095703125</v>
       </c>
       <c r="O82">
-        <v>1072</v>
+        <v>411</v>
       </c>
       <c r="P82">
-        <v>1191</v>
+        <v>1050</v>
       </c>
       <c r="Q82">
-        <v>5.7088070999999997E-2</v>
+        <v>2.8087221000077899E-2</v>
       </c>
       <c r="R82">
-        <v>21.5068359375</v>
+        <v>20.88671875</v>
       </c>
       <c r="S82" cm="1">
         <f t="array" aca="1" ref="S82" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C82,$G82)), ($C82:$G82),0,1)))</f>
-        <v>874</v>
+        <v>291</v>
       </c>
       <c r="T82" cm="1">
         <f t="array" aca="1" ref="T82" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C82,$G82)), ($C82:$G82),0,1)))</f>
-        <v>1015</v>
+        <v>954</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -6572,60 +6572,60 @@
         <v>66</v>
       </c>
       <c r="C83">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="D83">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E83">
-        <v>6.2599616999999996E-2</v>
+        <v>2.80520379999416E-2</v>
       </c>
       <c r="F83">
-        <v>242.7685546875</v>
+        <v>268.3642578125</v>
       </c>
       <c r="G83">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="I83">
-        <v>0.10687830700000001</v>
+        <v>4.95588090000183E-2</v>
       </c>
       <c r="J83">
-        <v>543.5126953125</v>
+        <v>1258.1416015625</v>
       </c>
       <c r="K83">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="L83">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M83">
-        <v>9.9166804999999997E-2</v>
+        <v>3.9032060000181397E-2</v>
       </c>
       <c r="N83">
-        <v>164.16015625</v>
+        <v>203.85546875</v>
       </c>
       <c r="O83">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="P83">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q83">
-        <v>5.7003569999999996E-3</v>
+        <v>3.3685590001368798E-3</v>
       </c>
       <c r="R83">
-        <v>5.5947265625</v>
+        <v>5.85546875</v>
       </c>
       <c r="S83" cm="1">
         <f t="array" aca="1" ref="S83" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C83,$G83)), ($C83:$G83),0,1)))</f>
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="T83" cm="1">
         <f t="array" aca="1" ref="T83" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C83,$G83)), ($C83:$G83),0,1)))</f>
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -6636,60 +6636,60 @@
         <v>90</v>
       </c>
       <c r="C84">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="D84">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E84">
-        <v>6.4440533999999994E-2</v>
+        <v>4.3795938000130201E-2</v>
       </c>
       <c r="F84">
-        <v>300.7109375</v>
+        <v>300.130859375</v>
       </c>
       <c r="G84">
+        <v>84</v>
+      </c>
+      <c r="H84">
+        <v>125</v>
+      </c>
+      <c r="I84">
+        <v>4.9611670639999303</v>
+      </c>
+      <c r="J84">
+        <v>9238.59765625</v>
+      </c>
+      <c r="K84">
+        <v>93</v>
+      </c>
+      <c r="L84">
+        <v>133</v>
+      </c>
+      <c r="M84">
+        <v>0.36411936200011003</v>
+      </c>
+      <c r="N84">
+        <v>824.1435546875</v>
+      </c>
+      <c r="O84">
+        <v>66</v>
+      </c>
+      <c r="P84">
         <v>168</v>
       </c>
-      <c r="H84">
-        <v>124</v>
-      </c>
-      <c r="I84">
-        <v>10.68811376</v>
-      </c>
-      <c r="J84">
-        <v>12898.3125</v>
-      </c>
-      <c r="K84">
-        <v>189</v>
-      </c>
-      <c r="L84">
-        <v>135</v>
-      </c>
-      <c r="M84">
-        <v>0.24976545999999999</v>
-      </c>
-      <c r="N84">
-        <v>824.0556640625</v>
-      </c>
-      <c r="O84">
-        <v>168</v>
-      </c>
-      <c r="P84">
-        <v>151</v>
-      </c>
       <c r="Q84">
-        <v>4.4437010000000004E-3</v>
+        <v>4.20264700005645E-3</v>
       </c>
       <c r="R84">
-        <v>6.8837890625</v>
+        <v>6.7060546875</v>
       </c>
       <c r="S84" cm="1">
         <f t="array" aca="1" ref="S84" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C84,$G84)), ($C84:$G84),0,1)))</f>
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="T84" cm="1">
         <f t="array" aca="1" ref="T84" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C84,$G84)), ($C84:$G84),0,1)))</f>
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -6700,60 +6700,60 @@
         <v>16</v>
       </c>
       <c r="C85">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>6.8045220000000003E-3</v>
+        <v>3.9953089999471498E-3</v>
       </c>
       <c r="F85">
-        <v>75.5107421875</v>
+        <v>52.486328125</v>
       </c>
       <c r="G85">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I85">
-        <v>8.9336439999999993E-3</v>
+        <v>4.1145870000036597E-3</v>
       </c>
       <c r="J85">
-        <v>193.6416015625</v>
+        <v>110.6845703125</v>
       </c>
       <c r="K85">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M85">
-        <v>9.5580360000000007E-3</v>
+        <v>3.4806160001607999E-3</v>
       </c>
       <c r="N85">
-        <v>121.494140625</v>
+        <v>91.3798828125</v>
       </c>
       <c r="O85">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P85">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q85">
-        <v>1.848677E-3</v>
+        <v>1.24134699990463E-3</v>
       </c>
       <c r="R85">
-        <v>3.78515625</v>
+        <v>3.6953125</v>
       </c>
       <c r="S85" cm="1">
         <f t="array" aca="1" ref="S85" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C85,$G85)), ($C85:$G85),0,1)))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T85" cm="1">
         <f t="array" aca="1" ref="T85" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C85,$G85)), ($C85:$G85),0,1)))</f>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -6764,60 +6764,60 @@
         <v>564</v>
       </c>
       <c r="C86">
-        <v>987</v>
+        <v>486</v>
       </c>
       <c r="D86">
+        <v>1184</v>
+      </c>
+      <c r="E86">
+        <v>0.315949870000167</v>
+      </c>
+      <c r="F86">
+        <v>2083.6181640625</v>
+      </c>
+      <c r="G86">
+        <v>318</v>
+      </c>
+      <c r="H86">
+        <v>994</v>
+      </c>
+      <c r="I86">
+        <v>3.4358045250000901</v>
+      </c>
+      <c r="J86">
+        <v>11555.458984375</v>
+      </c>
+      <c r="K86">
+        <v>468</v>
+      </c>
+      <c r="L86">
+        <v>1170</v>
+      </c>
+      <c r="M86">
+        <v>0.368789244000026</v>
+      </c>
+      <c r="N86">
+        <v>1260.00390625</v>
+      </c>
+      <c r="O86">
+        <v>432</v>
+      </c>
+      <c r="P86">
         <v>1150</v>
       </c>
-      <c r="E86">
-        <v>0.50715575099999999</v>
-      </c>
-      <c r="F86">
-        <v>2037.0322265625</v>
-      </c>
-      <c r="G86">
-        <v>882</v>
-      </c>
-      <c r="H86">
-        <v>1008</v>
-      </c>
-      <c r="I86">
-        <v>9.4124666480000005</v>
-      </c>
-      <c r="J86">
-        <v>17061.4765625</v>
-      </c>
-      <c r="K86">
-        <v>1017</v>
-      </c>
-      <c r="L86">
-        <v>1125</v>
-      </c>
-      <c r="M86">
-        <v>0.99877142299999999</v>
-      </c>
-      <c r="N86">
-        <v>3569.2021484375</v>
-      </c>
-      <c r="O86">
-        <v>1047</v>
-      </c>
-      <c r="P86">
-        <v>1183</v>
-      </c>
       <c r="Q86">
-        <v>3.5938386000000003E-2</v>
+        <v>2.6792185999965999E-2</v>
       </c>
       <c r="R86">
-        <v>23.3046875</v>
+        <v>23.087890625</v>
       </c>
       <c r="S86" cm="1">
         <f t="array" aca="1" ref="S86" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C86,$G86)), ($C86:$G86),0,1)))</f>
-        <v>882</v>
+        <v>318</v>
       </c>
       <c r="T86" cm="1">
         <f t="array" aca="1" ref="T86" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C86,$G86)), ($C86:$G86),0,1)))</f>
-        <v>1008</v>
+        <v>994</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -6828,56 +6828,56 @@
         <v>27</v>
       </c>
       <c r="C87">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>39</v>
       </c>
       <c r="E87">
-        <v>9.8341720000000004E-3</v>
+        <v>8.0946430000494694E-3</v>
       </c>
       <c r="F87">
-        <v>86.8154296875</v>
+        <v>76.7841796875</v>
       </c>
       <c r="G87">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I87">
-        <v>1.549588E-2</v>
+        <v>9.59566300002734E-3</v>
       </c>
       <c r="J87">
-        <v>755.8447265625</v>
+        <v>438.2275390625</v>
       </c>
       <c r="K87">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="L87">
         <v>39</v>
       </c>
       <c r="M87">
-        <v>1.1225666E-2</v>
+        <v>1.1700578000045401E-2</v>
       </c>
       <c r="N87">
-        <v>163.7041015625</v>
+        <v>69.90234375</v>
       </c>
       <c r="O87">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="P87">
         <v>39</v>
       </c>
       <c r="Q87">
-        <v>2.1597779999999998E-3</v>
+        <v>1.9296780001241099E-3</v>
       </c>
       <c r="R87">
-        <v>4.69140625</v>
+        <v>4.873046875</v>
       </c>
       <c r="S87" cm="1">
         <f t="array" aca="1" ref="S87" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C87,$G87)), ($C87:$G87),0,1)))</f>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="T87" cm="1">
         <f t="array" aca="1" ref="T87" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C87,$G87)), ($C87:$G87),0,1)))</f>
@@ -6892,60 +6892,60 @@
         <v>18</v>
       </c>
       <c r="C88">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E88">
-        <v>1.3285254E-2</v>
+        <v>8.4395030000905501E-3</v>
       </c>
       <c r="F88">
-        <v>63.349609375</v>
+        <v>63.939453125</v>
       </c>
       <c r="G88">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H88">
         <v>32</v>
       </c>
       <c r="I88">
-        <v>8.7332869999999993E-3</v>
+        <v>8.6021370000253193E-3</v>
       </c>
       <c r="J88">
-        <v>230.1103515625</v>
+        <v>238.7138671875</v>
       </c>
       <c r="K88">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L88">
         <v>32</v>
       </c>
       <c r="M88">
-        <v>1.2774535E-2</v>
+        <v>1.00423040000805E-2</v>
       </c>
       <c r="N88">
-        <v>139.935546875</v>
+        <v>139.3271484375</v>
       </c>
       <c r="O88">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P88">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q88">
-        <v>2.9758340000000001E-3</v>
+        <v>1.8071249999138601E-3</v>
       </c>
       <c r="R88">
-        <v>4.0146484375</v>
+        <v>4.23828125</v>
       </c>
       <c r="S88" cm="1">
         <f t="array" aca="1" ref="S88" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C88,$G88)), ($C88:$G88),0,1)))</f>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="T88" cm="1">
         <f t="array" aca="1" ref="T88" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C88,$G88)), ($C88:$G88),0,1)))</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -6956,60 +6956,60 @@
         <v>869</v>
       </c>
       <c r="C89">
-        <v>1862</v>
+        <v>849</v>
       </c>
       <c r="D89">
-        <v>2005</v>
+        <v>1899</v>
       </c>
       <c r="E89">
-        <v>0.67763821199999996</v>
+        <v>0.56752468199988404</v>
       </c>
       <c r="F89">
-        <v>3684.5224609375</v>
+        <v>3443.96875</v>
       </c>
       <c r="G89">
-        <v>1484</v>
+        <v>480</v>
       </c>
       <c r="H89">
-        <v>1591</v>
+        <v>1453</v>
       </c>
       <c r="I89">
-        <v>18.562601539999999</v>
+        <v>14.578498599000101</v>
       </c>
       <c r="J89">
-        <v>40927.9755859375</v>
+        <v>57101.3310546875</v>
       </c>
       <c r="K89">
-        <v>1805</v>
+        <v>819</v>
       </c>
       <c r="L89">
-        <v>1928</v>
+        <v>1807</v>
       </c>
       <c r="M89">
-        <v>1.42972901</v>
+        <v>1.7146084649998501</v>
       </c>
       <c r="N89">
-        <v>7271.6904296875</v>
+        <v>2510.33984375</v>
       </c>
       <c r="O89">
-        <v>1595</v>
+        <v>702</v>
       </c>
       <c r="P89">
-        <v>1770</v>
+        <v>1724</v>
       </c>
       <c r="Q89">
-        <v>4.8411062999999997E-2</v>
+        <v>4.2367844999944199E-2</v>
       </c>
       <c r="R89">
-        <v>32.052734375</v>
+        <v>33.6630859375</v>
       </c>
       <c r="S89" cm="1">
         <f t="array" aca="1" ref="S89" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C89,$G89)), ($C89:$G89),0,1)))</f>
-        <v>1484</v>
+        <v>480</v>
       </c>
       <c r="T89" cm="1">
         <f t="array" aca="1" ref="T89" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C89,$G89)), ($C89:$G89),0,1)))</f>
-        <v>1591</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -7020,60 +7020,60 @@
         <v>109</v>
       </c>
       <c r="C90">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D90">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="E90">
-        <v>6.1287881000000002E-2</v>
+        <v>7.4568572999851299E-2</v>
       </c>
       <c r="F90">
-        <v>372.056640625</v>
+        <v>356.94921875</v>
       </c>
       <c r="G90">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="H90">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="I90">
-        <v>1.1840293289999999</v>
+        <v>0.67733612400002097</v>
       </c>
       <c r="J90">
-        <v>6076.212890625</v>
+        <v>3662.3662109375</v>
       </c>
       <c r="K90">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="L90">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M90">
-        <v>8.5971756999999996E-2</v>
+        <v>0.17362784900001299</v>
       </c>
       <c r="N90">
-        <v>358.68359375</v>
+        <v>652.7216796875</v>
       </c>
       <c r="O90">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="P90">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="Q90">
-        <v>6.6158989999999997E-3</v>
+        <v>9.21808400016743E-3</v>
       </c>
       <c r="R90">
-        <v>6.900390625</v>
+        <v>7.22265625</v>
       </c>
       <c r="S90" cm="1">
         <f t="array" aca="1" ref="S90" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C90,$G90)), ($C90:$G90),0,1)))</f>
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="T90" cm="1">
         <f t="array" aca="1" ref="T90" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C90,$G90)), ($C90:$G90),0,1)))</f>
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -7084,60 +7084,60 @@
         <v>30</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E91">
-        <v>6.5073650000000002E-3</v>
+        <v>1.8022706000010599E-2</v>
       </c>
       <c r="F91">
-        <v>128.5830078125</v>
+        <v>131.8671875</v>
       </c>
       <c r="G91">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H91">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I91">
-        <v>6.160151E-3</v>
+        <v>3.3969081999884999E-2</v>
       </c>
       <c r="J91">
-        <v>1256.763671875</v>
+        <v>295.470703125</v>
       </c>
       <c r="K91">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L91">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="M91">
-        <v>7.3880889999999996E-3</v>
+        <v>3.2356129999925501E-2</v>
       </c>
       <c r="N91">
-        <v>196.60546875</v>
+        <v>266.50390625</v>
       </c>
       <c r="O91">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P91">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="Q91">
-        <v>1.880392E-3</v>
+        <v>5.1036130000738896E-3</v>
       </c>
       <c r="R91">
-        <v>4.365234375</v>
+        <v>4.57421875</v>
       </c>
       <c r="S91" cm="1">
         <f t="array" aca="1" ref="S91" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C91,$G91)), ($C91:$G91),0,1)))</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="T91" cm="1">
         <f t="array" aca="1" ref="T91" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C91,$G91)), ($C91:$G91),0,1)))</f>
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -7148,60 +7148,60 @@
         <v>179</v>
       </c>
       <c r="C92">
-        <v>296</v>
+        <v>162</v>
       </c>
       <c r="D92">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="E92">
-        <v>8.8831843999999993E-2</v>
+        <v>0.104463972000075</v>
       </c>
       <c r="F92">
-        <v>574.3525390625</v>
+        <v>543.4638671875</v>
       </c>
       <c r="G92">
-        <v>257</v>
+        <v>87</v>
       </c>
       <c r="H92">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I92">
-        <v>3.0466065599999999</v>
+        <v>3.9297463949999298</v>
       </c>
       <c r="J92">
-        <v>3178.1240234375</v>
+        <v>6200.09375</v>
       </c>
       <c r="K92">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="L92">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="M92">
-        <v>0.20215356600000001</v>
+        <v>0.23856904899980599</v>
       </c>
       <c r="N92">
-        <v>613.9931640625</v>
+        <v>341.94140625</v>
       </c>
       <c r="O92">
-        <v>353</v>
+        <v>156</v>
       </c>
       <c r="P92">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="Q92">
-        <v>1.3182167E-2</v>
+        <v>1.0576049000064799E-2</v>
       </c>
       <c r="R92">
-        <v>9.3876953125</v>
+        <v>9.3662109375</v>
       </c>
       <c r="S92" cm="1">
         <f t="array" aca="1" ref="S92" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C92,$G92)), ($C92:$G92),0,1)))</f>
-        <v>257</v>
+        <v>87</v>
       </c>
       <c r="T92" cm="1">
         <f t="array" aca="1" ref="T92" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C92,$G92)), ($C92:$G92),0,1)))</f>
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -7212,60 +7212,60 @@
         <v>128</v>
       </c>
       <c r="C93">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="D93">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E93">
-        <v>8.6743863000000004E-2</v>
+        <v>6.4411777000032006E-2</v>
       </c>
       <c r="F93">
-        <v>478.6396484375</v>
+        <v>403.9140625</v>
       </c>
       <c r="G93">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="H93">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="I93">
-        <v>2.9034416470000002</v>
+        <v>0.21670899600007901</v>
       </c>
       <c r="J93">
-        <v>3274.37890625</v>
+        <v>2817.76953125</v>
       </c>
       <c r="K93">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="L93">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="M93">
-        <v>0.135391488</v>
+        <v>7.0520122000061705E-2</v>
       </c>
       <c r="N93">
-        <v>724.759765625</v>
+        <v>248.15234375</v>
       </c>
       <c r="O93">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="P93">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="Q93">
-        <v>9.5377499999999994E-3</v>
+        <v>5.4811640000025303E-3</v>
       </c>
       <c r="R93">
-        <v>8.4208984375</v>
+        <v>7.6162109375</v>
       </c>
       <c r="S93" cm="1">
         <f t="array" aca="1" ref="S93" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C93,$G93)), ($C93:$G93),0,1)))</f>
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="T93" cm="1">
         <f t="array" aca="1" ref="T93" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C93,$G93)), ($C93:$G93),0,1)))</f>
-        <v>279</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
@@ -7276,60 +7276,60 @@
         <v>154</v>
       </c>
       <c r="C94">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="D94">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E94">
-        <v>0.122382038</v>
+        <v>0.112311770000133</v>
       </c>
       <c r="F94">
-        <v>556.3564453125</v>
+        <v>567.3896484375</v>
       </c>
       <c r="G94">
-        <v>310</v>
+        <v>153</v>
       </c>
       <c r="H94">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I94">
-        <v>28.584232740000001</v>
+        <v>30.707108168000101</v>
       </c>
       <c r="J94">
-        <v>22970.1123046875</v>
+        <v>6519.37890625</v>
       </c>
       <c r="K94">
-        <v>328</v>
+        <v>195</v>
       </c>
       <c r="L94">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M94">
-        <v>1.1476058419999999</v>
+        <v>1.3119755729999201</v>
       </c>
       <c r="N94">
-        <v>1530.3544921875</v>
+        <v>1298.2890625</v>
       </c>
       <c r="O94">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="P94">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="Q94">
-        <v>1.5192241E-2</v>
+        <v>8.2120609999947192E-3</v>
       </c>
       <c r="R94">
-        <v>8.306640625</v>
+        <v>8.7744140625</v>
       </c>
       <c r="S94" cm="1">
         <f t="array" aca="1" ref="S94" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C94,$G94)), ($C94:$G94),0,1)))</f>
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="T94" cm="1">
         <f t="array" aca="1" ref="T94" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C94,$G94)), ($C94:$G94),0,1)))</f>
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
@@ -7340,60 +7340,60 @@
         <v>72</v>
       </c>
       <c r="C95">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D95">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E95">
-        <v>3.5642877000000003E-2</v>
+        <v>3.8700911999967502E-2</v>
       </c>
       <c r="F95">
-        <v>266.16796875</v>
+        <v>288.9560546875</v>
       </c>
       <c r="G95">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="I95">
-        <v>8.5365200000000002E-2</v>
+        <v>7.2666383000068793E-2</v>
       </c>
       <c r="J95">
-        <v>2567.49609375</v>
+        <v>1350.001953125</v>
       </c>
       <c r="K95">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="L95">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M95">
-        <v>5.5969359000000003E-2</v>
+        <v>4.0444207000064097E-2</v>
       </c>
       <c r="N95">
-        <v>569.2158203125</v>
+        <v>257.47265625</v>
       </c>
       <c r="O95">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="P95">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="Q95">
-        <v>3.163295E-3</v>
+        <v>3.4209549999104599E-3</v>
       </c>
       <c r="R95">
-        <v>6.19140625</v>
+        <v>6.2529296875</v>
       </c>
       <c r="S95" cm="1">
         <f t="array" aca="1" ref="S95" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C95,$G95)), ($C95:$G95),0,1)))</f>
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="T95" cm="1">
         <f t="array" aca="1" ref="T95" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C95,$G95)), ($C95:$G95),0,1)))</f>
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -7404,60 +7404,60 @@
         <v>150</v>
       </c>
       <c r="C96">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="E96">
-        <v>4.9359261000000001E-2</v>
+        <v>6.7604702999915306E-2</v>
       </c>
       <c r="F96">
-        <v>845.88671875</v>
+        <v>852.6904296875</v>
       </c>
       <c r="G96">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="I96">
-        <v>4.4466917000000002E-2</v>
+        <v>2.6897129809999498</v>
       </c>
       <c r="J96">
-        <v>11023.0029296875</v>
+        <v>1912.94921875</v>
       </c>
       <c r="K96">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="L96">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="M96">
-        <v>0.100519494</v>
+        <v>0.40344881600003601</v>
       </c>
       <c r="N96">
-        <v>1640.36328125</v>
+        <v>577.03125</v>
       </c>
       <c r="O96">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="P96">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q96">
-        <v>1.0139509999999999E-2</v>
+        <v>7.2997489999124801E-3</v>
       </c>
       <c r="R96">
-        <v>13.9248046875</v>
+        <v>13.830078125</v>
       </c>
       <c r="S96" cm="1">
         <f t="array" aca="1" ref="S96" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C96,$G96)), ($C96:$G96),0,1)))</f>
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="T96" cm="1">
         <f t="array" aca="1" ref="T96" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C96,$G96)), ($C96:$G96),0,1)))</f>
-        <v>71</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -7468,60 +7468,60 @@
         <v>16</v>
       </c>
       <c r="C97">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D97">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E97">
-        <v>8.1993389999999999E-3</v>
+        <v>7.3974939998606697E-3</v>
       </c>
       <c r="F97">
-        <v>42.3251953125</v>
+        <v>73.8330078125</v>
       </c>
       <c r="G97">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H97">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I97">
-        <v>7.2841921000000004E-2</v>
+        <v>1.18594690000009E-2</v>
       </c>
       <c r="J97">
-        <v>250.5498046875</v>
+        <v>54.28515625</v>
       </c>
       <c r="K97">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="L97">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M97">
-        <v>2.5023356E-2</v>
+        <v>1.12789489999158E-2</v>
       </c>
       <c r="N97">
-        <v>99.3330078125</v>
+        <v>83.978515625</v>
       </c>
       <c r="O97">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P97">
         <v>32</v>
       </c>
       <c r="Q97">
-        <v>1.8541740000000001E-3</v>
+        <v>1.8502989998978501E-3</v>
       </c>
       <c r="R97">
-        <v>3.7509765625</v>
+        <v>3.8583984375</v>
       </c>
       <c r="S97" cm="1">
         <f t="array" aca="1" ref="S97" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C97,$G97)), ($C97:$G97),0,1)))</f>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="T97" cm="1">
         <f t="array" aca="1" ref="T97" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C97,$G97)), ($C97:$G97),0,1)))</f>
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
@@ -7532,60 +7532,60 @@
         <v>525</v>
       </c>
       <c r="C98">
-        <v>789</v>
+        <v>492</v>
       </c>
       <c r="D98">
-        <v>964</v>
+        <v>1167</v>
       </c>
       <c r="E98">
-        <v>0.27463300299999999</v>
+        <v>0.35490377299993198</v>
       </c>
       <c r="F98">
-        <v>1885.408203125</v>
+        <v>2021.6416015625</v>
       </c>
       <c r="G98">
-        <v>807</v>
+        <v>171</v>
       </c>
       <c r="H98">
-        <v>939</v>
+        <v>833</v>
       </c>
       <c r="I98">
-        <v>21.178984270000001</v>
+        <v>9.8011697690001203</v>
       </c>
       <c r="J98">
-        <v>32713.7763671875</v>
+        <v>36511.2841796875</v>
       </c>
       <c r="K98">
-        <v>1062</v>
+        <v>453</v>
       </c>
       <c r="L98">
-        <v>1258</v>
+        <v>1114</v>
       </c>
       <c r="M98">
-        <v>0.89898710699999995</v>
+        <v>0.78967293300001895</v>
       </c>
       <c r="N98">
-        <v>3165.4638671875</v>
+        <v>4088.7919921875</v>
       </c>
       <c r="O98">
-        <v>1161</v>
+        <v>408</v>
       </c>
       <c r="P98">
-        <v>1356</v>
+        <v>1089</v>
       </c>
       <c r="Q98">
-        <v>4.1016113E-2</v>
+        <v>2.9876607000005599E-2</v>
       </c>
       <c r="R98">
-        <v>22.478515625</v>
+        <v>22.919921875</v>
       </c>
       <c r="S98" cm="1">
         <f t="array" aca="1" ref="S98" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C98,$G98)), ($C98:$G98),0,1)))</f>
-        <v>789</v>
+        <v>171</v>
       </c>
       <c r="T98" cm="1">
         <f t="array" aca="1" ref="T98" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C98,$G98)), ($C98:$G98),0,1)))</f>
-        <v>964</v>
+        <v>833</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -7596,56 +7596,56 @@
         <v>13</v>
       </c>
       <c r="C99">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>13</v>
       </c>
       <c r="E99">
-        <v>4.8906760000000001E-3</v>
+        <v>8.1423350000022696E-3</v>
       </c>
       <c r="F99">
-        <v>30.6650390625</v>
+        <v>48.6572265625</v>
       </c>
       <c r="G99">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>13</v>
       </c>
       <c r="I99">
-        <v>3.0637419999999999E-3</v>
+        <v>2.8010290000111101E-3</v>
       </c>
       <c r="J99">
-        <v>37.5751953125</v>
+        <v>208.4873046875</v>
       </c>
       <c r="K99">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>13</v>
       </c>
       <c r="M99">
-        <v>2.967478E-3</v>
+        <v>2.8270269999666098E-3</v>
       </c>
       <c r="N99">
-        <v>36.5751953125</v>
+        <v>192.6826171875</v>
       </c>
       <c r="O99">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P99">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="Q99">
-        <v>4.031466E-3</v>
+        <v>1.2425509999047699E-3</v>
       </c>
       <c r="R99">
-        <v>3.4951171875</v>
+        <v>3.734375</v>
       </c>
       <c r="S99" cm="1">
         <f t="array" aca="1" ref="S99" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C99,$G99)), ($C99:$G99),0,1)))</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T99" cm="1">
         <f t="array" aca="1" ref="T99" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C99,$G99)), ($C99:$G99),0,1)))</f>
@@ -7660,60 +7660,60 @@
         <v>148</v>
       </c>
       <c r="C100">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="D100">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="E100">
-        <v>0.13518691099999999</v>
+        <v>0.15180371199994599</v>
       </c>
       <c r="F100">
-        <v>566.19140625</v>
+        <v>566.84765625</v>
       </c>
       <c r="G100">
-        <v>286</v>
+        <v>129</v>
       </c>
       <c r="H100">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="I100">
-        <v>17.970105820000001</v>
+        <v>18.413185859000102</v>
       </c>
       <c r="J100">
-        <v>10145.6044921875</v>
+        <v>10117.947265625</v>
       </c>
       <c r="K100">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c r="L100">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="M100">
-        <v>1.1681615830000001</v>
+        <v>1.4879134669999901</v>
       </c>
       <c r="N100">
-        <v>1714.828125</v>
+        <v>1502.6796875</v>
       </c>
       <c r="O100">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="P100">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="Q100">
-        <v>8.4646249999999999E-3</v>
+        <v>1.04353639999317E-2</v>
       </c>
       <c r="R100">
-        <v>8.2861328125</v>
+        <v>8.38671875</v>
       </c>
       <c r="S100" cm="1">
         <f t="array" aca="1" ref="S100" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C100,$G100)), ($C100:$G100),0,1)))</f>
-        <v>286</v>
+        <v>129</v>
       </c>
       <c r="T100" cm="1">
         <f t="array" aca="1" ref="T100" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C100,$G100)), ($C100:$G100),0,1)))</f>
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
@@ -7724,60 +7724,60 @@
         <v>51</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D101">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E101">
-        <v>3.6554867999999997E-2</v>
+        <v>3.2075955999971401E-2</v>
       </c>
       <c r="F101">
-        <v>186.634765625</v>
+        <v>232.728515625</v>
       </c>
       <c r="G101">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="H101">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="I101">
-        <v>0.131926607</v>
+        <v>4.0746434000084202E-2</v>
       </c>
       <c r="J101">
-        <v>327.712890625</v>
+        <v>763.3701171875</v>
       </c>
       <c r="K101">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="L101">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="M101">
-        <v>4.8028849999999998E-2</v>
+        <v>2.97093109998058E-2</v>
       </c>
       <c r="N101">
-        <v>270.6435546875</v>
+        <v>182.62109375</v>
       </c>
       <c r="O101">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="P101">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="Q101">
-        <v>6.8095450000000002E-3</v>
+        <v>2.9731939998782699E-3</v>
       </c>
       <c r="R101">
-        <v>5.146484375</v>
+        <v>5.244140625</v>
       </c>
       <c r="S101" cm="1">
         <f t="array" aca="1" ref="S101" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C101,$G101)), ($C101:$G101),0,1)))</f>
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="T101" cm="1">
         <f t="array" aca="1" ref="T101" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C101,$G101)), ($C101:$G101),0,1)))</f>
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
@@ -7788,60 +7788,60 @@
         <v>38</v>
       </c>
       <c r="C102">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D102">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E102">
-        <v>2.9630068999999998E-2</v>
+        <v>2.0697585999641801E-2</v>
       </c>
       <c r="F102">
-        <v>146.771484375</v>
+        <v>135.9765625</v>
       </c>
       <c r="G102">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="H102">
         <v>77</v>
       </c>
       <c r="I102">
-        <v>0.191855159</v>
+        <v>0.13883234900003999</v>
       </c>
       <c r="J102">
-        <v>2117.865234375</v>
+        <v>1452.3544921875</v>
       </c>
       <c r="K102">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="L102">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M102">
-        <v>2.9715129E-2</v>
+        <v>3.2270322000385897E-2</v>
       </c>
       <c r="N102">
-        <v>259.3583984375</v>
+        <v>116.62890625</v>
       </c>
       <c r="O102">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="P102">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q102">
-        <v>3.908758E-3</v>
+        <v>3.5371209996810601E-3</v>
       </c>
       <c r="R102">
-        <v>4.607421875</v>
+        <v>4.7314453125</v>
       </c>
       <c r="S102" cm="1">
         <f t="array" aca="1" ref="S102" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C102,$G102)), ($C102:$G102),0,1)))</f>
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="T102" cm="1">
         <f t="array" aca="1" ref="T102" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C102,$G102)), ($C102:$G102),0,1)))</f>
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
@@ -7852,56 +7852,56 @@
         <v>18</v>
       </c>
       <c r="C103">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D103">
         <v>23</v>
       </c>
       <c r="E103">
-        <v>6.2809149999999998E-3</v>
+        <v>8.6081490003380098E-3</v>
       </c>
       <c r="F103">
-        <v>54.7685546875</v>
+        <v>55.4501953125</v>
       </c>
       <c r="G103">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H103">
         <v>23</v>
       </c>
       <c r="I103">
-        <v>7.5663229999999998E-3</v>
+        <v>7.0561480001742798E-3</v>
       </c>
       <c r="J103">
-        <v>318.76171875</v>
+        <v>134.66015625</v>
       </c>
       <c r="K103">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L103">
         <v>23</v>
       </c>
       <c r="M103">
-        <v>4.9599689999999998E-3</v>
+        <v>5.4619800002910701E-3</v>
       </c>
       <c r="N103">
-        <v>142.4052734375</v>
+        <v>110.6796875</v>
       </c>
       <c r="O103">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="P103">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q103">
-        <v>1.840527E-3</v>
+        <v>1.3151570001355101E-3</v>
       </c>
       <c r="R103">
-        <v>3.74609375</v>
+        <v>3.845703125</v>
       </c>
       <c r="S103" cm="1">
         <f t="array" aca="1" ref="S103" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C103,$G103)), ($C103:$G103),0,1)))</f>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="T103" cm="1">
         <f t="array" aca="1" ref="T103" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C103,$G103)), ($C103:$G103),0,1)))</f>
@@ -7916,60 +7916,60 @@
         <v>38</v>
       </c>
       <c r="C104">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D104">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E104">
-        <v>1.1222118999999999E-2</v>
+        <v>2.2836943000129301E-2</v>
       </c>
       <c r="F104">
-        <v>167.884765625</v>
+        <v>133.0166015625</v>
       </c>
       <c r="G104">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H104">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I104">
-        <v>2.0099605E-2</v>
+        <v>3.6222700000053003E-2</v>
       </c>
       <c r="J104">
-        <v>565.8564453125</v>
+        <v>1232.6064453125</v>
       </c>
       <c r="K104">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L104">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M104">
-        <v>1.6929932000000002E-2</v>
+        <v>3.3249178000005403E-2</v>
       </c>
       <c r="N104">
-        <v>330.9150390625</v>
+        <v>124.9521484375</v>
       </c>
       <c r="O104">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="P104">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q104">
-        <v>4.6000279999999999E-3</v>
+        <v>2.2148369998831099E-3</v>
       </c>
       <c r="R104">
-        <v>4.73046875</v>
+        <v>4.673828125</v>
       </c>
       <c r="S104" cm="1">
         <f t="array" aca="1" ref="S104" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C104,$G104)), ($C104:$G104),0,1)))</f>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="T104" cm="1">
         <f t="array" aca="1" ref="T104" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C104,$G104)), ($C104:$G104),0,1)))</f>
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -7980,56 +7980,56 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>5</v>
       </c>
       <c r="E105">
-        <v>1.744553E-3</v>
+        <v>2.93367899985241E-3</v>
       </c>
       <c r="F105">
-        <v>18.43359375</v>
+        <v>18.4404296875</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>5</v>
       </c>
       <c r="I105">
-        <v>1.684011E-3</v>
+        <v>3.5880079999515099E-3</v>
       </c>
       <c r="J105">
-        <v>50.3896484375</v>
+        <v>72.8173828125</v>
       </c>
       <c r="K105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>5</v>
       </c>
       <c r="M105">
-        <v>1.956036E-3</v>
+        <v>2.3961289998624099E-3</v>
       </c>
       <c r="N105">
-        <v>53.4052734375</v>
+        <v>73.2080078125</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P105">
         <v>5</v>
       </c>
       <c r="Q105">
-        <v>1.3518130000000001E-3</v>
+        <v>1.1227689997213E-3</v>
       </c>
       <c r="R105">
-        <v>3.0888671875</v>
+        <v>3.123046875</v>
       </c>
       <c r="S105" cm="1">
         <f t="array" aca="1" ref="S105" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C105,$G105)), ($C105:$G105),0,1)))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T105" cm="1">
         <f t="array" aca="1" ref="T105" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C105,$G105)), ($C105:$G105),0,1)))</f>
@@ -8044,60 +8044,60 @@
         <v>17</v>
       </c>
       <c r="C106">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E106">
-        <v>1.2044622E-2</v>
+        <v>5.0598220000210798E-3</v>
       </c>
       <c r="F106">
-        <v>71.044921875</v>
+        <v>66.966796875</v>
       </c>
       <c r="G106">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H106">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I106">
-        <v>8.9009445000000006E-2</v>
+        <v>1.01606270000047E-2</v>
       </c>
       <c r="J106">
-        <v>537.2255859375</v>
+        <v>953.267578125</v>
       </c>
       <c r="K106">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M106">
-        <v>2.8577633000000002E-2</v>
+        <v>9.2583910000030301E-3</v>
       </c>
       <c r="N106">
-        <v>179.2099609375</v>
+        <v>223.10546875</v>
       </c>
       <c r="O106">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="Q106">
-        <v>2.5356939999999998E-3</v>
+        <v>1.29542000013316E-3</v>
       </c>
       <c r="R106">
-        <v>3.92578125</v>
+        <v>3.8203125</v>
       </c>
       <c r="S106" cm="1">
         <f t="array" aca="1" ref="S106" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C106,$G106)), ($C106:$G106),0,1)))</f>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="T106" cm="1">
         <f t="array" aca="1" ref="T106" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C106,$G106)), ($C106:$G106),0,1)))</f>
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
@@ -8108,60 +8108,60 @@
         <v>72</v>
       </c>
       <c r="C107">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="D107">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="E107">
-        <v>6.5749540999999995E-2</v>
+        <v>4.2379449999771099E-2</v>
       </c>
       <c r="F107">
-        <v>318.5078125</v>
+        <v>319.02734375</v>
       </c>
       <c r="G107">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="I107">
-        <v>0.38741800999999998</v>
+        <v>4.0247025000098802E-2</v>
       </c>
       <c r="J107">
-        <v>1328.1240234375</v>
+        <v>6702.6708984375</v>
       </c>
       <c r="K107">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="L107">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="M107">
-        <v>4.0207043999999997E-2</v>
+        <v>3.4810357999958699E-2</v>
       </c>
       <c r="N107">
-        <v>262.80078125</v>
+        <v>628.517578125</v>
       </c>
       <c r="O107">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="P107">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="Q107">
-        <v>3.7568100000000002E-3</v>
+        <v>4.3370040002628204E-3</v>
       </c>
       <c r="R107">
-        <v>6.1513671875</v>
+        <v>6.0966796875</v>
       </c>
       <c r="S107" cm="1">
         <f t="array" aca="1" ref="S107" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C107,$G107)), ($C107:$G107),0,1)))</f>
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="T107" cm="1">
         <f t="array" aca="1" ref="T107" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C107,$G107)), ($C107:$G107),0,1)))</f>
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
@@ -8172,60 +8172,60 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E108">
-        <v>4.3720110000000003E-3</v>
+        <v>5.1001689998884103E-3</v>
       </c>
       <c r="F108">
-        <v>49.98828125</v>
+        <v>49.3466796875</v>
       </c>
       <c r="G108">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I108">
-        <v>7.0566420000000001E-3</v>
+        <v>1.13716370001384E-2</v>
       </c>
       <c r="J108">
-        <v>158.8037109375</v>
+        <v>212.642578125</v>
       </c>
       <c r="K108">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M108">
-        <v>6.7163889999999997E-3</v>
+        <v>6.3554429998475799E-3</v>
       </c>
       <c r="N108">
-        <v>113.8134765625</v>
+        <v>95.7138671875</v>
       </c>
       <c r="O108">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q108">
-        <v>2.0736230000000001E-3</v>
+        <v>1.6879770000741701E-3</v>
       </c>
       <c r="R108">
-        <v>3.6337890625</v>
+        <v>3.7333984375</v>
       </c>
       <c r="S108" cm="1">
         <f t="array" aca="1" ref="S108" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C108,$G108)), ($C108:$G108),0,1)))</f>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T108" cm="1">
         <f t="array" aca="1" ref="T108" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C108,$G108)), ($C108:$G108),0,1)))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
@@ -8236,60 +8236,60 @@
         <v>240</v>
       </c>
       <c r="C109">
-        <v>423</v>
+        <v>189</v>
       </c>
       <c r="D109">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="E109">
-        <v>0.25057032099999998</v>
+        <v>0.19836005999968601</v>
       </c>
       <c r="F109">
-        <v>810.833984375</v>
+        <v>776.65234375</v>
       </c>
       <c r="G109">
-        <v>501</v>
+        <v>270</v>
       </c>
       <c r="H109">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="I109">
-        <v>35.753053260000002</v>
+        <v>30.484460200999798</v>
       </c>
       <c r="J109">
-        <v>60323.6748046875</v>
+        <v>63469.01171875</v>
       </c>
       <c r="K109">
-        <v>561</v>
+        <v>393</v>
       </c>
       <c r="L109">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="M109">
-        <v>2.9448275380000002</v>
+        <v>3.64616793499999</v>
       </c>
       <c r="N109">
-        <v>6170.5263671875</v>
+        <v>6223.5556640625</v>
       </c>
       <c r="O109">
-        <v>519</v>
+        <v>186</v>
       </c>
       <c r="P109">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q109">
-        <v>1.5462300999999999E-2</v>
+        <v>9.4403020002573595E-3</v>
       </c>
       <c r="R109">
-        <v>13.220703125</v>
+        <v>13.08203125</v>
       </c>
       <c r="S109" cm="1">
         <f t="array" aca="1" ref="S109" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C109,$G109)), ($C109:$G109),0,1)))</f>
-        <v>423</v>
+        <v>189</v>
       </c>
       <c r="T109" cm="1">
         <f t="array" aca="1" ref="T109" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C109,$G109)), ($C109:$G109),0,1)))</f>
-        <v>289</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
@@ -8300,60 +8300,60 @@
         <v>22</v>
       </c>
       <c r="C110">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E110">
-        <v>1.4743378999999999E-2</v>
+        <v>8.7826140002107405E-3</v>
       </c>
       <c r="F110">
-        <v>102.5595703125</v>
+        <v>91.2626953125</v>
       </c>
       <c r="G110">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I110">
-        <v>0.14612350199999999</v>
+        <v>8.5805839999011299E-3</v>
       </c>
       <c r="J110">
-        <v>1881.591796875</v>
+        <v>263.794921875</v>
       </c>
       <c r="K110">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M110">
-        <v>1.7119966E-2</v>
+        <v>6.1868370003139699E-3</v>
       </c>
       <c r="N110">
-        <v>248.6513671875</v>
+        <v>240.7861328125</v>
       </c>
       <c r="O110">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="P110">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="Q110">
-        <v>2.1713240000000001E-3</v>
+        <v>1.7833489996519299E-3</v>
       </c>
       <c r="R110">
-        <v>4.1240234375</v>
+        <v>4.0810546875</v>
       </c>
       <c r="S110" cm="1">
         <f t="array" aca="1" ref="S110" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C110,$G110)), ($C110:$G110),0,1)))</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T110" cm="1">
         <f t="array" aca="1" ref="T110" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C110,$G110)), ($C110:$G110),0,1)))</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
@@ -8364,60 +8364,60 @@
         <v>215</v>
       </c>
       <c r="C111">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="D111">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="E111">
-        <v>0.123293009</v>
+        <v>0.138538012000026</v>
       </c>
       <c r="F111">
-        <v>831.1513671875</v>
+        <v>810.9951171875</v>
       </c>
       <c r="G111">
-        <v>350</v>
+        <v>147</v>
       </c>
       <c r="H111">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I111">
-        <v>7.8475553610000004</v>
+        <v>6.1096608839998199</v>
       </c>
       <c r="J111">
-        <v>5636.62109375</v>
+        <v>11199.0771484375</v>
       </c>
       <c r="K111">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="L111">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="M111">
-        <v>0.41065931</v>
+        <v>0.247606770999937</v>
       </c>
       <c r="N111">
-        <v>1180.4970703125</v>
+        <v>1552.7607421875</v>
       </c>
       <c r="O111">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="P111">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="Q111">
-        <v>2.9742105000000001E-2</v>
+        <v>9.65830899986031E-3</v>
       </c>
       <c r="R111">
-        <v>11.2666015625</v>
+        <v>10.3740234375</v>
       </c>
       <c r="S111" cm="1">
         <f t="array" aca="1" ref="S111" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C111,$G111)), ($C111:$G111),0,1)))</f>
-        <v>350</v>
+        <v>147</v>
       </c>
       <c r="T111" cm="1">
         <f t="array" aca="1" ref="T111" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C111,$G111)), ($C111:$G111),0,1)))</f>
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -8428,60 +8428,60 @@
         <v>1314</v>
       </c>
       <c r="C112">
-        <v>2628</v>
+        <v>1506</v>
       </c>
       <c r="D112">
-        <v>2937</v>
+        <v>3094</v>
       </c>
       <c r="E112">
-        <v>1.000728681</v>
+        <v>1.0242681480003699</v>
       </c>
       <c r="F112">
-        <v>5297.4912109375</v>
+        <v>5544.28515625</v>
       </c>
       <c r="G112">
-        <v>2343</v>
+        <v>783</v>
       </c>
       <c r="H112">
-        <v>2558</v>
+        <v>2291</v>
       </c>
       <c r="I112">
-        <v>46.696700290000003</v>
+        <v>26.0139269469996</v>
       </c>
       <c r="J112">
-        <v>115747.30761718701</v>
+        <v>116842.36035156201</v>
       </c>
       <c r="K112">
-        <v>2547</v>
+        <v>1284</v>
       </c>
       <c r="L112">
-        <v>2793</v>
+        <v>2871</v>
       </c>
       <c r="M112">
-        <v>3.0007610370000002</v>
+        <v>3.8330186759999298</v>
       </c>
       <c r="N112">
-        <v>3559.84765625</v>
+        <v>11992.044921875</v>
       </c>
       <c r="O112">
-        <v>2637</v>
+        <v>1200</v>
       </c>
       <c r="P112">
-        <v>2833</v>
+        <v>2764</v>
       </c>
       <c r="Q112">
-        <v>8.7281332000000003E-2</v>
+        <v>8.8178748000245805E-2</v>
       </c>
       <c r="R112">
-        <v>50.23046875</v>
+        <v>51.0458984375</v>
       </c>
       <c r="S112" cm="1">
         <f t="array" aca="1" ref="S112" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C112,$G112)), ($C112:$G112),0,1)))</f>
-        <v>2343</v>
+        <v>783</v>
       </c>
       <c r="T112" cm="1">
         <f t="array" aca="1" ref="T112" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C112,$G112)), ($C112:$G112),0,1)))</f>
-        <v>2558</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
@@ -8492,60 +8492,60 @@
         <v>30</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D113">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E113">
-        <v>8.694317E-3</v>
+        <v>1.6874370000095899E-2</v>
       </c>
       <c r="F113">
-        <v>133.509765625</v>
+        <v>108.439453125</v>
       </c>
       <c r="G113">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H113">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I113">
-        <v>6.3226719999999997E-3</v>
+        <v>1.4912657999957399E-2</v>
       </c>
       <c r="J113">
-        <v>121.76953125</v>
+        <v>181.630859375</v>
       </c>
       <c r="K113">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L113">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="M113">
-        <v>5.9312490000000004E-3</v>
+        <v>1.50492930001746E-2</v>
       </c>
       <c r="N113">
-        <v>266.2236328125</v>
+        <v>166.240234375</v>
       </c>
       <c r="O113">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P113">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q113">
-        <v>2.2907499999999998E-3</v>
+        <v>2.3507810001319701E-3</v>
       </c>
       <c r="R113">
-        <v>4.275390625</v>
+        <v>4.2431640625</v>
       </c>
       <c r="S113" cm="1">
         <f t="array" aca="1" ref="S113" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C113,$G113)), ($C113:$G113),0,1)))</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="T113" cm="1">
         <f t="array" aca="1" ref="T113" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C113,$G113)), ($C113:$G113),0,1)))</f>
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
@@ -8556,60 +8556,60 @@
         <v>85</v>
       </c>
       <c r="C114">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D114">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E114">
-        <v>3.0933994999999999E-2</v>
+        <v>2.78558179998071E-2</v>
       </c>
       <c r="F114">
-        <v>309.84765625</v>
+        <v>258.095703125</v>
       </c>
       <c r="G114">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="I114">
-        <v>1.9933393159999999</v>
+        <v>1.9661338710002301</v>
       </c>
       <c r="J114">
-        <v>8133.880859375</v>
+        <v>3904.7666015625</v>
       </c>
       <c r="K114">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="L114">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M114">
-        <v>0.49839893800000001</v>
+        <v>0.36901240700035398</v>
       </c>
       <c r="N114">
-        <v>873.08984375</v>
+        <v>188.00390625</v>
       </c>
       <c r="O114">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="P114">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="Q114">
-        <v>4.6074690000000003E-3</v>
+        <v>2.6984910000464801E-3</v>
       </c>
       <c r="R114">
-        <v>5.9248046875</v>
+        <v>5.7099609375</v>
       </c>
       <c r="S114" cm="1">
         <f t="array" aca="1" ref="S114" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C114,$G114)), ($C114:$G114),0,1)))</f>
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="T114" cm="1">
         <f t="array" aca="1" ref="T114" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C114,$G114)), ($C114:$G114),0,1)))</f>
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
@@ -8620,60 +8620,60 @@
         <v>18</v>
       </c>
       <c r="C115">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E115">
-        <v>9.0218769999999993E-3</v>
+        <v>5.0106369999411903E-3</v>
       </c>
       <c r="F115">
-        <v>79.7216796875</v>
+        <v>68.455078125</v>
       </c>
       <c r="G115">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H115">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I115">
-        <v>7.7875196999999993E-2</v>
+        <v>7.86061300004803E-3</v>
       </c>
       <c r="J115">
-        <v>152.6171875</v>
+        <v>184.33203125</v>
       </c>
       <c r="K115">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M115">
-        <v>1.0020121999999999E-2</v>
+        <v>1.18020400000204E-2</v>
       </c>
       <c r="N115">
-        <v>138.5859375</v>
+        <v>136.591796875</v>
       </c>
       <c r="O115">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="P115">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Q115">
-        <v>2.0713799999999998E-3</v>
+        <v>2.1443850000650798E-3</v>
       </c>
       <c r="R115">
-        <v>3.8603515625</v>
+        <v>3.86328125</v>
       </c>
       <c r="S115" cm="1">
         <f t="array" aca="1" ref="S115" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C115,$G115)), ($C115:$G115),0,1)))</f>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="T115" cm="1">
         <f t="array" aca="1" ref="T115" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C115,$G115)), ($C115:$G115),0,1)))</f>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
@@ -8684,60 +8684,60 @@
         <v>275</v>
       </c>
       <c r="C116">
-        <v>542</v>
+        <v>135</v>
       </c>
       <c r="D116">
-        <v>649</v>
+        <v>491</v>
       </c>
       <c r="E116">
-        <v>0.17979530399999999</v>
+        <v>0.11409795999998</v>
       </c>
       <c r="F116">
-        <v>1030.6787109375</v>
+        <v>903.208984375</v>
       </c>
       <c r="G116">
-        <v>467</v>
+        <v>150</v>
       </c>
       <c r="H116">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="I116">
-        <v>4.8005011599999996</v>
+        <v>1.46504006000031</v>
       </c>
       <c r="J116">
-        <v>8430.49609375</v>
+        <v>11100.6728515625</v>
       </c>
       <c r="K116">
-        <v>488</v>
+        <v>219</v>
       </c>
       <c r="L116">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="M116">
-        <v>0.41574752999999998</v>
+        <v>0.21348474500018699</v>
       </c>
       <c r="N116">
-        <v>1328.2431640625</v>
+        <v>1158.16015625</v>
       </c>
       <c r="O116">
-        <v>479</v>
+        <v>204</v>
       </c>
       <c r="P116">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="Q116">
-        <v>1.5260243999999999E-2</v>
+        <v>1.20552160001352E-2</v>
       </c>
       <c r="R116">
-        <v>13.1416015625</v>
+        <v>12.5947265625</v>
       </c>
       <c r="S116" cm="1">
         <f t="array" aca="1" ref="S116" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C116,$G116)), ($C116:$G116),0,1)))</f>
-        <v>467</v>
+        <v>135</v>
       </c>
       <c r="T116" cm="1">
         <f t="array" aca="1" ref="T116" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C116,$G116)), ($C116:$G116),0,1)))</f>
-        <v>556</v>
+        <v>491</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
@@ -8748,60 +8748,60 @@
         <v>104</v>
       </c>
       <c r="C117">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="D117">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E117">
-        <v>0.103556536</v>
+        <v>7.0469400000092705E-2</v>
       </c>
       <c r="F117">
-        <v>385.892578125</v>
+        <v>391.4306640625</v>
       </c>
       <c r="G117">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="H117">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I117">
-        <v>8.9992449099999998</v>
+        <v>5.84620875000018</v>
       </c>
       <c r="J117">
-        <v>3547.796875</v>
+        <v>8799.87109375</v>
       </c>
       <c r="K117">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="L117">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M117">
-        <v>0.39826781900000002</v>
+        <v>1.00253901899986</v>
       </c>
       <c r="N117">
-        <v>508.5615234375</v>
+        <v>484.2900390625</v>
       </c>
       <c r="O117">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="P117">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q117">
-        <v>7.2230380000000002E-3</v>
+        <v>7.4563800003488697E-3</v>
       </c>
       <c r="R117">
-        <v>6.7578125</v>
+        <v>6.72265625</v>
       </c>
       <c r="S117" cm="1">
         <f t="array" aca="1" ref="S117" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C117,$G117)), ($C117:$G117),0,1)))</f>
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="T117" cm="1">
         <f t="array" aca="1" ref="T117" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C117,$G117)), ($C117:$G117),0,1)))</f>
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
@@ -8812,60 +8812,60 @@
         <v>25</v>
       </c>
       <c r="C118">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D118">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E118">
-        <v>1.608443E-2</v>
+        <v>1.37926649999826E-2</v>
       </c>
       <c r="F118">
-        <v>112.0078125</v>
+        <v>86.0390625</v>
       </c>
       <c r="G118">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="H118">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I118">
-        <v>0.128317087</v>
+        <v>1.23417509998944E-2</v>
       </c>
       <c r="J118">
-        <v>418.2158203125</v>
+        <v>834.966796875</v>
       </c>
       <c r="K118">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L118">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M118">
-        <v>2.0866844999999998E-2</v>
+        <v>1.0714794999785201E-2</v>
       </c>
       <c r="N118">
-        <v>249.064453125</v>
+        <v>234.314453125</v>
       </c>
       <c r="O118">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="P118">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="Q118">
-        <v>2.558771E-3</v>
+        <v>1.9256059999861401E-3</v>
       </c>
       <c r="R118">
-        <v>4.3466796875</v>
+        <v>4.2216796875</v>
       </c>
       <c r="S118" cm="1">
         <f t="array" aca="1" ref="S118" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C118,$G118)), ($C118:$G118),0,1)))</f>
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="T118" cm="1">
         <f t="array" aca="1" ref="T118" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C118,$G118)), ($C118:$G118),0,1)))</f>
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
@@ -8876,60 +8876,60 @@
         <v>427</v>
       </c>
       <c r="C119">
-        <v>832</v>
+        <v>411</v>
       </c>
       <c r="D119">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="E119">
-        <v>0.44389500300000001</v>
+        <v>0.28910055799997197</v>
       </c>
       <c r="F119">
-        <v>1653.751953125</v>
+        <v>1689.54296875</v>
       </c>
       <c r="G119">
-        <v>691</v>
+        <v>264</v>
       </c>
       <c r="H119">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="I119">
-        <v>20.473045930000001</v>
+        <v>5.7764296459999898</v>
       </c>
       <c r="J119">
-        <v>24481.814453125</v>
+        <v>1074.80859375</v>
       </c>
       <c r="K119">
-        <v>865</v>
+        <v>375</v>
       </c>
       <c r="L119">
-        <v>924</v>
+        <v>893</v>
       </c>
       <c r="M119">
-        <v>1.3729123240000001</v>
+        <v>0.52365726199968698</v>
       </c>
       <c r="N119">
-        <v>3214.7958984375</v>
+        <v>3279.380859375</v>
       </c>
       <c r="O119">
-        <v>784</v>
+        <v>390</v>
       </c>
       <c r="P119">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="Q119">
-        <v>2.0770363999999999E-2</v>
+        <v>2.7009629000076502E-2</v>
       </c>
       <c r="R119">
-        <v>18.134765625</v>
+        <v>19.919921875</v>
       </c>
       <c r="S119" cm="1">
         <f t="array" aca="1" ref="S119" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C119,$G119)), ($C119:$G119),0,1)))</f>
-        <v>691</v>
+        <v>264</v>
       </c>
       <c r="T119" cm="1">
         <f t="array" aca="1" ref="T119" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C119,$G119)), ($C119:$G119),0,1)))</f>
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
@@ -8940,60 +8940,60 @@
         <v>1701</v>
       </c>
       <c r="C120">
-        <v>3183</v>
+        <v>1704</v>
       </c>
       <c r="D120">
-        <v>3794</v>
+        <v>4071</v>
       </c>
       <c r="E120">
-        <v>1.5366116190000001</v>
+        <v>1.26033479100033</v>
       </c>
       <c r="F120">
-        <v>6626.1064453125</v>
+        <v>7143.86328125</v>
       </c>
       <c r="G120">
-        <v>2889</v>
+        <v>1335</v>
       </c>
       <c r="H120">
-        <v>3331</v>
+        <v>3506</v>
       </c>
       <c r="I120">
-        <v>52.995451080000002</v>
+        <v>30.591630099000199</v>
       </c>
       <c r="J120">
-        <v>67433.9599609375</v>
+        <v>4932.62109375</v>
       </c>
       <c r="K120">
-        <v>2814</v>
+        <v>1797</v>
       </c>
       <c r="L120">
-        <v>3284</v>
+        <v>3963</v>
       </c>
       <c r="M120">
-        <v>4.0116142699999999</v>
+        <v>3.76386251500025</v>
       </c>
       <c r="N120">
-        <v>4572.77734375</v>
+        <v>4289.58203125</v>
       </c>
       <c r="O120">
-        <v>3171</v>
+        <v>1551</v>
       </c>
       <c r="P120">
-        <v>3745</v>
+        <v>3879</v>
       </c>
       <c r="Q120">
-        <v>9.3215449000000006E-2</v>
+        <v>8.60306109998418E-2</v>
       </c>
       <c r="R120">
-        <v>65.17578125</v>
+        <v>65.34765625</v>
       </c>
       <c r="S120" cm="1">
         <f t="array" aca="1" ref="S120" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C120,$G120)), ($C120:$G120),0,1)))</f>
-        <v>2889</v>
+        <v>1335</v>
       </c>
       <c r="T120" cm="1">
         <f t="array" aca="1" ref="T120" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C120,$G120)), ($C120:$G120),0,1)))</f>
-        <v>3331</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
@@ -9004,60 +9004,60 @@
         <v>256</v>
       </c>
       <c r="C121">
-        <v>394</v>
+        <v>264</v>
       </c>
       <c r="D121">
-        <v>484</v>
+        <v>607</v>
       </c>
       <c r="E121">
-        <v>0.109413469</v>
+        <v>0.17175567300000599</v>
       </c>
       <c r="F121">
-        <v>958.7734375</v>
+        <v>900.8154296875</v>
       </c>
       <c r="G121">
-        <v>457</v>
+        <v>153</v>
       </c>
       <c r="H121">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="I121">
-        <v>4.2796191700000001</v>
+        <v>1.64624758099989</v>
       </c>
       <c r="J121">
-        <v>22197.6123046875</v>
+        <v>10671.9755859375</v>
       </c>
       <c r="K121">
-        <v>484</v>
+        <v>252</v>
       </c>
       <c r="L121">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="M121">
-        <v>0.484762994</v>
+        <v>0.186725683000076</v>
       </c>
       <c r="N121">
-        <v>2033.568359375</v>
+        <v>2149.416015625</v>
       </c>
       <c r="O121">
-        <v>499</v>
+        <v>174</v>
       </c>
       <c r="P121">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="Q121">
-        <v>1.6753682999999998E-2</v>
+        <v>1.0126253000180401E-2</v>
       </c>
       <c r="R121">
-        <v>12.4814453125</v>
+        <v>12.6962890625</v>
       </c>
       <c r="S121" cm="1">
         <f t="array" aca="1" ref="S121" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C121,$G121)), ($C121:$G121),0,1)))</f>
-        <v>394</v>
+        <v>153</v>
       </c>
       <c r="T121" cm="1">
         <f t="array" aca="1" ref="T121" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C121,$G121)), ($C121:$G121),0,1)))</f>
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
@@ -9068,60 +9068,60 @@
         <v>113</v>
       </c>
       <c r="C122">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="D122">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E122">
-        <v>5.5003192999999999E-2</v>
+        <v>7.3507631000211404E-2</v>
       </c>
       <c r="F122">
-        <v>409.7744140625</v>
+        <v>441.9189453125</v>
       </c>
       <c r="G122">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="H122">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I122">
-        <v>0.98037081400000003</v>
+        <v>0.16072204000010901</v>
       </c>
       <c r="J122">
-        <v>1945.27734375</v>
+        <v>2092.4560546875</v>
       </c>
       <c r="K122">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="L122">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="M122">
-        <v>5.9284941000000001E-2</v>
+        <v>8.0313528000260703E-2</v>
       </c>
       <c r="N122">
-        <v>879.404296875</v>
+        <v>794.978515625</v>
       </c>
       <c r="O122">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="P122">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q122">
-        <v>8.0524829999999992E-3</v>
+        <v>6.99211200026184E-3</v>
       </c>
       <c r="R122">
-        <v>7.4130859375</v>
+        <v>7.42578125</v>
       </c>
       <c r="S122" cm="1">
         <f t="array" aca="1" ref="S122" ca="1">INDIRECT(ADDRESS(ROW(), 2+_xlfn.XMATCH(MIN(($C122,$G122)), ($C122:$G122),0,1)))</f>
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="T122" cm="1">
         <f t="array" aca="1" ref="T122" ca="1">INDIRECT(ADDRESS(ROW(), 3+_xlfn.XMATCH(MIN(($C122,$G122)), ($C122:$G122),0,1)))</f>
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
